--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -1871,46 +1871,46 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>6.753506700000004</v>
+        <v>6.659719399999998</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.4885934673333334</v>
+        <v>0.4788853339999999</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.4860152963333333</v>
+        <v>0.4812530739999998</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.8294217859999994</v>
+        <v>0.8279445169999997</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.8069356186666662</v>
+        <v>0.8125261420000004</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.3043513576666665</v>
+        <v>0.302175039</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.3060884303333335</v>
+        <v>0.3075710109999999</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.5347228733333338</v>
+        <v>0.5257941099999999</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.2535663346666666</v>
+        <v>0.249741153</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.252925604</v>
+        <v>0.2494790979999998</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1.248757396666667</v>
+        <v>1.251244370000001</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1.46688606</v>
+        <v>1.461096379999999</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.05253688093333333</v>
+        <v>0.05235978500000001</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.05250421216666665</v>
+        <v>0.05311109419999999</v>
       </c>
       <c r="P8" s="0">
         <f>SUM(B24:O24)</f>
@@ -1924,46 +1924,46 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>12.96126406666667</v>
+        <v>12.22359459999999</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>33.34083946666664</v>
+        <v>33.20540949999999</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>33.4943739666667</v>
+        <v>33.28688650000001</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.3148126963333335</v>
+        <v>0.2926555390000001</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.3221247803333332</v>
+        <v>0.3151060250000001</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.08143333310000006</v>
+        <v>-0.08105926870000001</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>-0.08175050036666663</v>
+        <v>-0.08159536879999997</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>-0.06765452573333336</v>
+        <v>-0.06803092309999999</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.2436413793333335</v>
+        <v>0.254075186</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.2619292429999999</v>
+        <v>0.2661158439999999</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.4479737840000002</v>
+        <v>0.455408719</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.09328555116666661</v>
+        <v>0.09432523740000003</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.001012143594000001</v>
+        <v>0.001013141239</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.001034867674333334</v>
+        <v>0.00108228894</v>
       </c>
       <c r="P9" s="0">
         <f>SUM(B25:O25)</f>
@@ -1977,46 +1977,46 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3.83103948</v>
+        <v>3.49335717</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>-1.834883646666667</v>
+        <v>-1.79983349</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>-1.866361510000002</v>
+        <v>-1.829995619999999</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-0.07260716276666668</v>
+        <v>-0.06918304469999999</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>-0.06972535376666671</v>
+        <v>-0.06794651860000001</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.02896871353333333</v>
+        <v>-0.028691739</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>-0.02929934136666667</v>
+        <v>-0.02946651749999999</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>-0.07671608456666665</v>
+        <v>-0.07651242110000002</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.07807131063333345</v>
+        <v>0.07672728719999999</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.07502707686666658</v>
+        <v>0.07402841930000002</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>9.827447563333328e-06</v>
+        <v>9.797879079999996e-06</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.02438296723333334</v>
+        <v>0.02402554520000001</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>-0.0001824371519999999</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0.000183358225</v>
+        <v>-0.000181772255</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>-0.000186685858</v>
       </c>
       <c r="P10" s="0">
         <f>SUM(B26:O26)</f>

--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D3CB2-F624-914E-ACF7-0262A213C9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFB589-B33C-BF44-AE54-424E0C368913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,42 +293,210 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>プロット!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>プロット!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>プロット!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9A9-494F-9155-4D15F8E4052E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>プロット!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>プロット!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.836812018100005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>プロット!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.25145358623503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F9A9-494F-9155-4D15F8E4052E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -358,6 +529,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -419,6 +591,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2040,7 +2213,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2397,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:E14" si="0">C2</f>
+        <f t="shared" ref="D14" si="0">C2</f>
         <v>0</v>
       </c>
       <c r="E14">
@@ -3651,18 +3824,20 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4">
         <v>1.5</v>
       </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
@@ -3699,33 +3874,133 @@
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <f>'alpha=0'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>'alpha=0'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>'alpha=0'!$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>'alpha=0'!$P$9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5">
+        <f>'alpha=4'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>'alpha=2'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>'alpha=2'!$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>'alpha=2'!$P$9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <f>'alpha=4'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>'alpha=4'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>'alpha=4'!$P$8</f>
+        <v>13.836812018100005</v>
+      </c>
+      <c r="E6">
+        <f>'alpha=4'!$P$9</f>
+        <v>81.25145358623503</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <f>'alpha=6'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>'alpha=6'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>'alpha=6'!$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>'alpha=6'!$P$9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
+      <c r="B8">
+        <f>'alpha=8'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>'alpha=8'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>'alpha=8'!$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>'alpha=8'!$P$9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>10</v>
       </c>
+      <c r="B9">
+        <f>'alpha=10'!$P$2</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>'alpha=10'!$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>'alpha=10'!$P$8</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>'alpha=10'!$P$9</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14D7B1-3AC1-8F41-8DB4-1824B24E93C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D200AB-8D36-7B43-9983-266790B57262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="11060" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="47">
   <si>
     <t>翼1.0</t>
   </si>
@@ -155,6 +155,50 @@
   </si>
   <si>
     <t>抗力[N]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴有り</t>
+    <rPh sb="0" eb="1">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>抗力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[N]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>揚力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[N]</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -165,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +269,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -519,13 +584,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -618,6 +752,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2075,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3810,29 +3971,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="15" customWidth="1"/>
     <col min="2" max="5" width="8.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="32">
+    <row r="1" spans="1:9">
+      <c r="B1" s="41">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="32">
+      <c r="C1" s="42"/>
+      <c r="D1" s="41">
         <v>1.5</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
@@ -3845,8 +4007,15 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="32"/>
+      <c r="H2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -3862,8 +4031,17 @@
       <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="37">
+        <v>1.014994</v>
+      </c>
+      <c r="I3" s="38">
+        <v>0.18339900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -3883,8 +4061,17 @@
         <f>'alpha=0'!$P$9</f>
         <v>4.3615335693399997</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="39">
+        <v>24.942198999999999</v>
+      </c>
+      <c r="I4" s="40">
+        <v>26.680834000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3905,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3926,7 +4113,7 @@
         <v>81.25145358623503</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3947,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -3968,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -3989,19 +4176,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="47"/>
+      <c r="B11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="39"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="48"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
@@ -4015,7 +4202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39" customHeight="1">
+    <row r="13" spans="1:9" ht="39" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -4032,7 +4219,7 @@
         <v>12.96126406666667</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" customHeight="1">
+    <row r="14" spans="1:9" ht="39" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -4049,7 +4236,7 @@
         <v>33.340839466666637</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" customHeight="1">
+    <row r="15" spans="1:9" ht="39" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -4066,7 +4253,7 @@
         <v>33.4943739666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39" customHeight="1">
+    <row r="16" spans="1:9" ht="39" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>

--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E39D8-8167-2F4E-A50D-3280CEB34418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB4ABEF-D174-554E-A830-97948B7E16C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="540" windowWidth="15560" windowHeight="15000" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="1140" windowWidth="20720" windowHeight="15000" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
     <sheet name="alpha=2" sheetId="2" r:id="rId2"/>
     <sheet name="alpha=4" sheetId="3" r:id="rId3"/>
-    <sheet name="alpha=6" sheetId="4" r:id="rId4"/>
-    <sheet name="alpha=8" sheetId="5" r:id="rId5"/>
-    <sheet name="alpha=10" sheetId="6" r:id="rId6"/>
-    <sheet name="alpha=12" sheetId="7" r:id="rId7"/>
-    <sheet name="変換後プロット" sheetId="8" r:id="rId8"/>
-    <sheet name="三種抜きプロット" sheetId="9" r:id="rId9"/>
-    <sheet name="プロット" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="alpha=6" sheetId="5" r:id="rId5"/>
+    <sheet name="alpha=8" sheetId="6" r:id="rId6"/>
+    <sheet name="alpha=10" sheetId="7" r:id="rId7"/>
+    <sheet name="alpha=12" sheetId="8" r:id="rId8"/>
+    <sheet name="alpha=14" sheetId="9" r:id="rId9"/>
+    <sheet name="変換後プロット" sheetId="10" r:id="rId10"/>
+    <sheet name="三種抜きプロット" sheetId="11" r:id="rId11"/>
+    <sheet name="プロット" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="48">
   <si>
     <t>翼1.0</t>
   </si>
@@ -142,6 +144,9 @@
     <t>L/D</t>
   </si>
   <si>
+    <t>L/D^1.5</t>
+  </si>
+  <si>
     <t>穴有り</t>
   </si>
   <si>
@@ -179,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +266,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -670,16 +681,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="mediumDashed">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -690,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +916,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,24 +975,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -798,6 +993,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,13 +1091,13 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>従来機体</c:v>
+            <c:v>従来機</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -927,62 +1125,74 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>変換後プロット!$B$4:$B$9</c:f>
+              <c:f>変換後プロット!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.290605402799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>16.055294288890284</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18.070508787079429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.599063196833125</c:v>
+                  <c:v>20.803621994228205</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23.489026294253037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>27.274471745257316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.689714518264871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.552244526523644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>変換後プロット!$C$4:$C$9</c:f>
+              <c:f>変換後プロット!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.834909841148473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.771748382178224</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60.283438007054379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.222056909857756</c:v>
+                  <c:v>82.802535585092684</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>105.29413795439389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>126.95064637087768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.77178807928016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.92105624497071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A13-4244-8091-E658E1B01547}"/>
+              <c16:uniqueId val="{00000000-8641-C049-9246-3596373E3B4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -990,7 +1200,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>主翼1.5倍機</c:v>
+            <c:v>1.5倍機</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1018,10 +1228,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>変換後プロット!$D$4:$D$9</c:f>
+              <c:f>変換後プロット!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>15.801879444000003</c:v>
                 </c:pt>
@@ -1038,17 +1248,23 @@
                   <c:v>25.620195313855039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.38609814199263</c:v>
+                  <c:v>31.092044165992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.992395115765625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.651008050400947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>変換後プロット!$E$4:$E$9</c:f>
+              <c:f>変換後プロット!$E$4:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.3615335693399997</c:v>
                 </c:pt>
@@ -1065,7 +1281,835 @@
                   <c:v>154.93516292793052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.0222974436239</c:v>
+                  <c:v>194.18111735835635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.0857258009668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.13703159866958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8641-C049-9246-3596373E3B4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="819693919"/>
+        <c:axId val="819695599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="819693919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Drag[N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819695599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="819695599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Lift[N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819693919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20822525736524619"/>
+          <c:y val="6.3625744463361653E-2"/>
+          <c:w val="0.26350868481718565"/>
+          <c:h val="0.1625542626638965"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>従来機</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>変換後プロット!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>変換後プロット!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.97019767696260872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2903191757514541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3360122129022489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9801980447474756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4826948820843961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6545593094008426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7577515408786795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6487174302434369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68EC-6842-9E4A-C63636DD5977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.5倍機</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-68EC-6842-9E4A-C63636DD5977}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>変換後プロット!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>変換後プロット!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2760135960280396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5730304803614628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0429854058887811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4323310896610018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0473841448095351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2453634866101426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2140258617967152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9379853484917851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68EC-6842-9E4A-C63636DD5977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1496373711"/>
+        <c:axId val="1498255007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1496373711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>α[deg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498255007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1498255007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>L/D</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1496373711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58047309176316786"/>
+          <c:y val="0.56308569938278963"/>
+          <c:w val="0.26292269857181422"/>
+          <c:h val="0.19241034389881825"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>従来機体</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>三種抜きプロット!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.1300749778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.669793474495338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.432305042526894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.884555696039737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.390403509962916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.966514574720122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.27101960801901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.110515947637566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>三種抜きプロット!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.088833496744474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.194154012207406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.919576733776189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.628767143301374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.28143275080124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.29198491287906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.22769475931293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.55816946159308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +2117,110 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A13-4244-8091-E658E1B01547}"/>
+              <c16:uniqueId val="{00000000-3D6F-A942-8D63-20685DE97E9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>翼1.5倍機</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>三種抜きプロット!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.090920124000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.27080771709586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.757849832577078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.153664809485523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.445775844872021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.695627054254892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.466548471085371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.842083930323447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>三種抜きプロット!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5801622033399996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.128060014985039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.523655893048371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.00718787590546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.77197833986358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.16779114802836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.45030299213445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.71772016099681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D6F-A942-8D63-20685DE97E9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1164,7 +2311,6 @@
         <c:axId val="819695599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1271,7 +2417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1323,10 +2469,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>変換後プロット!$A$4:$A$9</c:f>
+              <c:f>変換後プロット!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1344,33 +2490,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>変換後プロット!$F$4:$F$9</c:f>
+              <c:f>三種抜きプロット!$F$4:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3907926177861536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3922075529132325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3360122129022489</c:v>
+                  <c:v>4.8196675136920062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9429976078885343</c:v>
+                  <c:v>5.5513089426838595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4826948820843961</c:v>
+                  <c:v>6.053995969126639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.0712038932001766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9842340002508365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.664405410993127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,7 +2536,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F37-814F-92B6-0D43F2C98062}"/>
+              <c16:uniqueId val="{00000000-7123-744D-8005-F458FB5F9759}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1386,7 +2544,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>主翼1.5倍機</c:v>
+            <c:v>翼1.5倍機</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1426,16 +2584,16 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4F37-814F-92B6-0D43F2C98062}"/>
+                <c16:uniqueId val="{00000002-7123-744D-8005-F458FB5F9759}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>変換後プロット!$A$4:$A$9</c:f>
+              <c:f>変換後プロット!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1453,33 +2611,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>変換後プロット!$G$4:$G$9</c:f>
+              <c:f>三種抜きプロット!$G$4:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.2760135960280396</c:v>
+                  <c:v>0.3228011890188236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5730304803614628</c:v>
+                  <c:v>3.5961821774376932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0429854058887811</c:v>
+                  <c:v>5.6348671366859131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4323310896610018</c:v>
+                  <c:v>7.3671943351222549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0473841448095351</c:v>
+                  <c:v>7.9591567636360452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1817909497974277</c:v>
+                  <c:v>7.8624361601125869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5143387019205097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.02175177905763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +2657,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4F37-814F-92B6-0D43F2C98062}"/>
+              <c16:uniqueId val="{00000003-7123-744D-8005-F458FB5F9759}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1694,875 +2864,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21843468582196829"/>
-          <c:y val="9.1908970509317928E-2"/>
-          <c:w val="0.2149722222222222"/>
-          <c:h val="0.15625109361329839"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>従来機体</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$B$4:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.485060199019099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.801834418637091</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.510279676212274</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$C$4:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60.674010620091821</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.831370207250217</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106.13439599456743</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-974F-6240-8971-84CB21401A7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>主翼1.5倍機</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$D$4:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>11.090920124000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.27080771709586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.757849832577078</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.153664809485523</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.445775844872021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.952437528634402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$E$4:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.5801622033399996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.128060014985039</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.523655893048371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119.00718787590546</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>154.77197833986358</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>193.97986860628478</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-974F-6240-8971-84CB21401A7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="819693919"/>
-        <c:axId val="819695599"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="819693919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Drag[N]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="819695599"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="819695599"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Lift[N]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="819693919"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20822525736524619"/>
-          <c:y val="6.3625744463361653E-2"/>
-          <c:w val="0.37767692221321991"/>
-          <c:h val="0.1036270108070302"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>従来機体</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>変換後プロット!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$F$4:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8597291204778283</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5284613982855921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0612621818228902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6EAE-4D47-9B84-46388467B1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>主翼1.5倍機</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6EAE-4D47-9B84-46388467B1B7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>変換後プロット!$A$4:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>三種抜きプロット!$G$4:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.3228011890188236</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5961821774376932</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6348671366859131</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3671943351222549</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9591567636360452</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7739847413176122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6EAE-4D47-9B84-46388467B1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1496373711"/>
-        <c:axId val="1498255007"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1496373711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>α[deg]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1498255007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1498255007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>L/D</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1496373711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.68780555555555556"/>
-          <c:y val="0.24690908428113151"/>
+          <c:x val="0.44493337831362578"/>
+          <c:y val="0.56363493709193813"/>
           <c:w val="0.2149722222222222"/>
           <c:h val="0.15625109361329839"/>
         </c:manualLayout>
@@ -2613,23 +2916,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>903112</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56444</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>366890</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>205022</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131233</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,23 +2952,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>672098</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>225779</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762409</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>528210</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +3009,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +3045,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,69 +3425,153 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3">
+        <v>6.4461706399999992</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.43954742</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.4434693199999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.71043953399999982</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.69139099899999978</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.30566374499999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.30737956</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.54883125700000013</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.34212874799999998</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.346889789</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.07084669</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.5259786399999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.6765604999999997E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5.5103455800000013E-2</v>
+      </c>
       <c r="P2" s="3">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>15.290605402799999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3">
+        <v>5.7757043499999989</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2303164899999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2461857800000011</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.36052047599999992</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.41544891399999989</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-9.5900989700000008E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-9.5837076099999988E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-8.924501830000002E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-7.4057814899999977E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-8.9328308899999986E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.32128822299999998</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-7.0198184496000043E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3.787813959999938E-7</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.2621763080000009E-5</v>
+      </c>
       <c r="P3" s="3">
         <f>SUM(B3:O3)</f>
-        <v>0</v>
+        <v>14.834909841148473</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3">
+        <v>1.5794214200000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.28231467100000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.30187161499999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-8.9058312700000031E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-9.0518236400000021E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.8751670900000002E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-2.9024012799999999E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-8.2824954300000045E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.1673910600000043E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7.1946920000000011E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.39003753E-5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5.1213806399999999E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.9364865900000001E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.8860968899999999E-4</v>
+      </c>
       <c r="P4" s="3">
         <f>SUM(B4:O4)</f>
-        <v>0</v>
+        <v>0.86952422592730017</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3460,813 +3847,1880 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="86" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="67">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="37">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="I1" s="37">
+        <v>1</v>
+      </c>
+      <c r="J1" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="37">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37">
+        <f>COS(RADIANS($A4))*(プロット!B4)+SIN(RADIANS($A4))*(プロット!C4)</f>
+        <v>15.290605402799999</v>
+      </c>
+      <c r="C4" s="37">
+        <f>-SIN(RADIANS($A4))*(プロット!B4)+COS(RADIANS($A4))*(プロット!C4)</f>
+        <v>14.834909841148473</v>
+      </c>
+      <c r="D4" s="37">
+        <f>COS(RADIANS($A4))*(プロット!D4)+SIN(RADIANS($A4))*(プロット!E4)</f>
+        <v>15.801879444000003</v>
+      </c>
+      <c r="E4" s="37">
+        <f>-SIN(RADIANS($A4))*(プロット!D4)+COS(RADIANS($A4))*(プロット!E4)</f>
+        <v>4.3615335693399997</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F11" si="0">C4/B4</f>
+        <v>0.97019767696260872</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" ref="G4:G11" si="1">E4/D4</f>
+        <v>0.2760135960280396</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" ref="I4:I11" si="2">C4/(B4^1.5)</f>
+        <v>0.24811206881958073</v>
+      </c>
+      <c r="J4" s="37">
+        <f t="shared" ref="J4:J11" si="3">E4/(D4^1.5)</f>
+        <v>6.9434626424623516E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37">
+        <f>COS(RADIANS($A5))*(プロット!B5)+SIN(RADIANS($A5))*(プロット!C5)</f>
+        <v>16.055294288890284</v>
+      </c>
+      <c r="C5" s="37">
+        <f>-SIN(RADIANS($A5))*(プロット!B5)+COS(RADIANS($A5))*(プロット!C5)</f>
+        <v>36.771748382178224</v>
+      </c>
+      <c r="D5" s="37">
+        <f>COS(RADIANS($A5))*(プロット!D5)+SIN(RADIANS($A5))*(プロット!E5)</f>
+        <v>17.406416814637499</v>
+      </c>
+      <c r="E5" s="37">
+        <f>-SIN(RADIANS($A5))*(プロット!D5)+COS(RADIANS($A5))*(プロット!E5)</f>
+        <v>44.787241017938562</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="0"/>
+        <v>2.2903191757514541</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" si="1"/>
+        <v>2.5730304803614628</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="2"/>
+        <v>0.57159296372045065</v>
+      </c>
+      <c r="J5" s="37">
+        <f t="shared" si="3"/>
+        <v>0.61672313661593503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37">
+        <f>COS(RADIANS($A6))*(プロット!B6)+SIN(RADIANS($A6))*(プロット!C6)</f>
+        <v>18.070508787079429</v>
+      </c>
+      <c r="C6" s="37">
+        <f>-SIN(RADIANS($A6))*(プロット!B6)+COS(RADIANS($A6))*(プロット!C6)</f>
+        <v>60.283438007054379</v>
+      </c>
+      <c r="D6" s="37">
+        <f>COS(RADIANS($A6))*(プロット!D6)+SIN(RADIANS($A6))*(プロット!E6)</f>
+        <v>19.309324430292765</v>
+      </c>
+      <c r="E6" s="37">
+        <f>-SIN(RADIANS($A6))*(プロット!D6)+COS(RADIANS($A6))*(プロット!E6)</f>
+        <v>78.067316869245346</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="0"/>
+        <v>3.3360122129022489</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="1"/>
+        <v>4.0429854058887811</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="2"/>
+        <v>0.78477008857181052</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="3"/>
+        <v>0.92006526223494456</v>
+      </c>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <f>COS(RADIANS($A7))*(プロット!B7)+SIN(RADIANS($A7))*(プロット!C7)</f>
+        <v>20.803621994228205</v>
+      </c>
+      <c r="C7" s="37">
+        <f>-SIN(RADIANS($A7))*(プロット!B7)+COS(RADIANS($A7))*(プロット!C7)</f>
+        <v>82.802535585092684</v>
+      </c>
+      <c r="D7" s="37">
+        <f>COS(RADIANS($A7))*(プロット!D7)+SIN(RADIANS($A7))*(プロット!E7)</f>
+        <v>21.989588469128783</v>
+      </c>
+      <c r="E7" s="37">
+        <f>-SIN(RADIANS($A7))*(プロット!D7)+COS(RADIANS($A7))*(プロット!E7)</f>
+        <v>119.45472508969937</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="0"/>
+        <v>3.9801980447474756</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="1"/>
+        <v>5.4323310896610018</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="2"/>
+        <v>0.87264017839146124</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="3"/>
+        <v>1.1584510315242156</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="37">
+        <v>8</v>
+      </c>
+      <c r="B8" s="37">
+        <f>COS(RADIANS($A8))*(プロット!B8)+SIN(RADIANS($A8))*(プロット!C8)</f>
+        <v>23.489026294253037</v>
+      </c>
+      <c r="C8" s="37">
+        <f>-SIN(RADIANS($A8))*(プロット!B8)+COS(RADIANS($A8))*(プロット!C8)</f>
+        <v>105.29413795439389</v>
+      </c>
+      <c r="D8" s="37">
+        <f>COS(RADIANS($A8))*(プロット!D8)+SIN(RADIANS($A8))*(プロット!E8)</f>
+        <v>25.620195313855039</v>
+      </c>
+      <c r="E8" s="37">
+        <f>-SIN(RADIANS($A8))*(プロット!D8)+COS(RADIANS($A8))*(プロット!E8)</f>
+        <v>154.93516292793052</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>4.4826948820843961</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="1"/>
+        <v>6.0473841448095351</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="2"/>
+        <v>0.92492532802600413</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="3"/>
+        <v>1.1947480732786979</v>
+      </c>
+      <c r="K8" s="37">
+        <f>J8/I8</f>
+        <v>1.2917238149684531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="37">
+        <v>10</v>
+      </c>
+      <c r="B9" s="37">
+        <f>COS(RADIANS($A9))*(プロット!B9)+SIN(RADIANS($A9))*(プロット!C9)</f>
+        <v>27.274471745257316</v>
+      </c>
+      <c r="C9" s="37">
+        <f>-SIN(RADIANS($A9))*(プロット!B9)+COS(RADIANS($A9))*(プロット!C9)</f>
+        <v>126.95064637087768</v>
+      </c>
+      <c r="D9" s="37">
+        <f>COS(RADIANS($A9))*(プロット!D9)+SIN(RADIANS($A9))*(プロット!E9)</f>
+        <v>31.092044165992</v>
+      </c>
+      <c r="E9" s="37">
+        <f>-SIN(RADIANS($A9))*(プロット!D9)+COS(RADIANS($A9))*(プロット!E9)</f>
+        <v>194.18111735835635</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="0"/>
+        <v>4.6545593094008426</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="1"/>
+        <v>6.2453634866101426</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="2"/>
+        <v>0.89125174794161011</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="3"/>
+        <v>1.1200388367489564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="37">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37">
+        <f>COS(RADIANS($A10))*(プロット!B10)+SIN(RADIANS($A10))*(プロット!C10)</f>
+        <v>31.689714518264871</v>
+      </c>
+      <c r="C10" s="37">
+        <f>-SIN(RADIANS($A10))*(プロット!B10)+COS(RADIANS($A10))*(プロット!C10)</f>
+        <v>150.77178807928016</v>
+      </c>
+      <c r="D10" s="37">
+        <f>COS(RADIANS($A10))*(プロット!D10)+SIN(RADIANS($A10))*(プロット!E10)</f>
+        <v>37.992395115765625</v>
+      </c>
+      <c r="E10" s="37">
+        <f>-SIN(RADIANS($A10))*(プロット!D10)+COS(RADIANS($A10))*(プロット!E10)</f>
+        <v>236.0857258009668</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="0"/>
+        <v>4.7577515408786795</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="1"/>
+        <v>6.2140258617967152</v>
+      </c>
+      <c r="I10" s="37">
+        <f t="shared" si="2"/>
+        <v>0.84516712403167871</v>
+      </c>
+      <c r="J10" s="37">
+        <f t="shared" si="3"/>
+        <v>1.0081489909807506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="37">
+        <v>14</v>
+      </c>
+      <c r="B11" s="37">
+        <f>COS(RADIANS($A11))*(プロット!B11)+SIN(RADIANS($A11))*(プロット!C11)</f>
+        <v>36.552244526523644</v>
+      </c>
+      <c r="C11" s="37">
+        <f>-SIN(RADIANS($A11))*(プロット!B11)+COS(RADIANS($A11))*(プロット!C11)</f>
+        <v>169.92105624497071</v>
+      </c>
+      <c r="D11" s="37">
+        <f>COS(RADIANS($A11))*(プロット!D11)+SIN(RADIANS($A11))*(プロット!E11)</f>
+        <v>44.651008050400947</v>
+      </c>
+      <c r="E11" s="37">
+        <f>-SIN(RADIANS($A11))*(プロット!D11)+COS(RADIANS($A11))*(プロット!E11)</f>
+        <v>265.13703159866958</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="0"/>
+        <v>4.6487174302434369</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="1"/>
+        <v>5.9379853484917851</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37">
+        <f t="shared" si="2"/>
+        <v>0.76891108762729321</v>
+      </c>
+      <c r="J11" s="37">
+        <f t="shared" si="3"/>
+        <v>0.88863514972315671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="37" customFormat="1"/>
+    <row r="13" spans="1:11">
+      <c r="B13" s="13"/>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="18">
+        <f>-COS(RADIANS($A$6))*(-プロット!N20)-SIN(RADIANS($A$6))*(-プロット!N21)</f>
+        <v>2.752401375293668</v>
+      </c>
+      <c r="D14" s="19">
+        <f>-COS(RADIANS($A$6))*(-プロット!O20)-SIN(RADIANS($A$6))*(-プロット!O21)</f>
+        <v>2.0441131456459671</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="39">
+        <f>SIN(RADIANS($A$6))*(-プロット!N20)-COS(RADIANS($A$6))*(-プロット!N21)</f>
+        <v>24.810638654515092</v>
+      </c>
+      <c r="D15" s="40">
+        <f>SIN(RADIANS($A$6))*(-プロット!O20)-COS(RADIANS($A$6))*(-プロット!O21)</f>
+        <v>26.603047561821828</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="61"/>
+      <c r="B18" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="62"/>
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="20">
+        <v>7.6490999999999998</v>
+      </c>
+      <c r="C20" s="21">
+        <v>7.6412000000000004</v>
+      </c>
+      <c r="D20" s="22">
+        <v>14.3062</v>
+      </c>
+      <c r="E20" s="23">
+        <v>12.458600000000001</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="24">
+        <v>2.0693999999999999</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2.8130999999999999</v>
+      </c>
+      <c r="D21" s="26">
+        <v>22.496600000000001</v>
+      </c>
+      <c r="E21" s="27">
+        <v>33.225499999999997</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20">
+        <v>2.0727000000000002</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2.8212999999999999</v>
+      </c>
+      <c r="D22" s="22">
+        <v>22.423400000000001</v>
+      </c>
+      <c r="E22" s="23">
+        <v>33.378900000000002</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1.8025</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1.7817000000000001</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1.1208</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.1263000000000001</v>
+      </c>
+      <c r="D24" s="22">
+        <v>-0.32250000000000001</v>
+      </c>
+      <c r="E24" s="23">
+        <v>-0.31019999999999998</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28">
+        <v>2.8028</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2.7467999999999999</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.3538</v>
+      </c>
+      <c r="E26" s="31">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="21" customHeight="1" thickBot="1">
+      <c r="A27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="32">
+        <v>18.061299999999999</v>
+      </c>
+      <c r="C27" s="33">
+        <v>19.4709</v>
+      </c>
+      <c r="D27" s="34">
+        <v>60.055</v>
+      </c>
+      <c r="E27" s="35">
+        <v>80.088300000000004</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="37"/>
+      <c r="B1" s="67">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="37">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="37">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37">
+        <f>COS(RADIANS($A4))*(プロット!$J4)+SIN(RADIANS($A4))*(プロット!$K4)</f>
+        <v>10.1300749778</v>
+      </c>
+      <c r="C4" s="37">
+        <f>-SIN(RADIANS($A4))*(プロット!$J4)+COS(RADIANS($A4))*(プロット!$K4)</f>
+        <v>14.088833496744474</v>
+      </c>
+      <c r="D4" s="37">
+        <f>COS(RADIANS($A4))*(プロット!$L4)+SIN(RADIANS($A4))*(プロット!$M4)</f>
+        <v>11.090920124000004</v>
+      </c>
+      <c r="E4" s="37">
+        <f>-SIN(RADIANS($A4))*(プロット!$L4)+COS(RADIANS($A4))*(プロット!$M4)</f>
+        <v>3.5801622033399996</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F11" si="0">C4/B4</f>
+        <v>1.3907926177861536</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" ref="G4:G11" si="1">E4/D4</f>
+        <v>0.3228011890188236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37">
+        <f>COS(RADIANS($A5))*(プロット!$J5)+SIN(RADIANS($A5))*(プロット!$K5)</f>
+        <v>10.669793474495338</v>
+      </c>
+      <c r="C5" s="37">
+        <f>-SIN(RADIANS($A5))*(プロット!$J5)+COS(RADIANS($A5))*(プロット!$K5)</f>
+        <v>36.194154012207406</v>
+      </c>
+      <c r="D5" s="37">
+        <f>COS(RADIANS($A5))*(プロット!$L5)+SIN(RADIANS($A5))*(プロット!$M5)</f>
+        <v>12.27080771709586</v>
+      </c>
+      <c r="E5" s="37">
+        <f>-SIN(RADIANS($A5))*(プロット!$L5)+COS(RADIANS($A5))*(プロット!$M5)</f>
+        <v>44.128060014985039</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="0"/>
+        <v>3.3922075529132325</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" si="1"/>
+        <v>3.5961821774376932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37">
+        <f>COS(RADIANS($A6))*(プロット!$J6)+SIN(RADIANS($A6))*(プロット!$K6)</f>
+        <v>12.432305042526894</v>
+      </c>
+      <c r="C6" s="37">
+        <f>-SIN(RADIANS($A6))*(プロット!$J6)+COS(RADIANS($A6))*(プロット!$K6)</f>
+        <v>59.919576733776189</v>
+      </c>
+      <c r="D6" s="37">
+        <f>COS(RADIANS($A6))*(プロット!$L6)+SIN(RADIANS($A6))*(プロット!$M6)</f>
+        <v>13.757849832577078</v>
+      </c>
+      <c r="E6" s="37">
+        <f>-SIN(RADIANS($A6))*(プロット!$L6)+COS(RADIANS($A6))*(プロット!$M6)</f>
+        <v>77.523655893048371</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="0"/>
+        <v>4.8196675136920062</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="1"/>
+        <v>5.6348671366859131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <f>COS(RADIANS($A7))*(プロット!$J7)+SIN(RADIANS($A7))*(プロット!$K7)</f>
+        <v>14.884555696039737</v>
+      </c>
+      <c r="C7" s="37">
+        <f>-SIN(RADIANS($A7))*(プロット!$J7)+COS(RADIANS($A7))*(プロット!$K7)</f>
+        <v>82.628767143301374</v>
+      </c>
+      <c r="D7" s="37">
+        <f>COS(RADIANS($A7))*(プロット!$L7)+SIN(RADIANS($A7))*(プロット!$M7)</f>
+        <v>16.153664809485523</v>
+      </c>
+      <c r="E7" s="37">
+        <f>-SIN(RADIANS($A7))*(プロット!$L7)+COS(RADIANS($A7))*(プロット!$M7)</f>
+        <v>119.00718787590546</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="0"/>
+        <v>5.5513089426838595</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="1"/>
+        <v>7.3671943351222549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="37">
+        <v>8</v>
+      </c>
+      <c r="B8" s="37">
+        <f>COS(RADIANS($A8))*(プロット!$J8)+SIN(RADIANS($A8))*(プロット!$K8)</f>
+        <v>17.390403509962916</v>
+      </c>
+      <c r="C8" s="37">
+        <f>-SIN(RADIANS($A8))*(プロット!$J8)+COS(RADIANS($A8))*(プロット!$K8)</f>
+        <v>105.28143275080124</v>
+      </c>
+      <c r="D8" s="37">
+        <f>COS(RADIANS($A8))*(プロット!$L8)+SIN(RADIANS($A8))*(プロット!$M8)</f>
+        <v>19.445775844872021</v>
+      </c>
+      <c r="E8" s="37">
+        <f>-SIN(RADIANS($A8))*(プロット!$L8)+COS(RADIANS($A8))*(プロット!$M8)</f>
+        <v>154.77197833986358</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>6.053995969126639</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="1"/>
+        <v>7.9591567636360452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37">
+        <v>10</v>
+      </c>
+      <c r="B9" s="37">
+        <f>COS(RADIANS($A9))*(プロット!$J9)+SIN(RADIANS($A9))*(プロット!$K9)</f>
+        <v>20.966514574720122</v>
+      </c>
+      <c r="C9" s="37">
+        <f>-SIN(RADIANS($A9))*(プロット!$J9)+COS(RADIANS($A9))*(プロット!$K9)</f>
+        <v>127.29198491287906</v>
+      </c>
+      <c r="D9" s="37">
+        <f>COS(RADIANS($A9))*(プロット!$L9)+SIN(RADIANS($A9))*(プロット!$M9)</f>
+        <v>24.695627054254892</v>
+      </c>
+      <c r="E9" s="37">
+        <f>-SIN(RADIANS($A9))*(プロット!$L9)+COS(RADIANS($A9))*(プロット!$M9)</f>
+        <v>194.16779114802836</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="0"/>
+        <v>6.0712038932001766</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="1"/>
+        <v>7.8624361601125869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="37">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37">
+        <f>COS(RADIANS($A10))*(プロット!$J10)+SIN(RADIANS($A10))*(プロット!$K10)</f>
+        <v>25.27101960801901</v>
+      </c>
+      <c r="C10" s="37">
+        <f>-SIN(RADIANS($A10))*(プロット!$J10)+COS(RADIANS($A10))*(プロット!$K10)</f>
+        <v>151.22769475931293</v>
+      </c>
+      <c r="D10" s="37">
+        <f>COS(RADIANS($A10))*(プロット!$L10)+SIN(RADIANS($A10))*(プロット!$M10)</f>
+        <v>31.466548471085371</v>
+      </c>
+      <c r="E10" s="37">
+        <f>-SIN(RADIANS($A10))*(プロット!$L10)+COS(RADIANS($A10))*(プロット!$M10)</f>
+        <v>236.45030299213445</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="0"/>
+        <v>5.9842340002508365</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="1"/>
+        <v>7.5143387019205097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="37">
+        <v>14</v>
+      </c>
+      <c r="B11" s="37">
+        <f>COS(RADIANS($A11))*(プロット!$J11)+SIN(RADIANS($A11))*(プロット!$K11)</f>
+        <v>30.110515947637566</v>
+      </c>
+      <c r="C11" s="37">
+        <f>-SIN(RADIANS($A11))*(プロット!$J11)+COS(RADIANS($A11))*(プロット!$K11)</f>
+        <v>170.55816946159308</v>
+      </c>
+      <c r="D11" s="37">
+        <f>COS(RADIANS($A11))*(プロット!$L11)+SIN(RADIANS($A11))*(プロット!$M11)</f>
+        <v>37.842083930323447</v>
+      </c>
+      <c r="E11" s="37">
+        <f>-SIN(RADIANS($A11))*(プロット!$L11)+COS(RADIANS($A11))*(プロット!$M11)</f>
+        <v>265.71772016099681</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="0"/>
+        <v>5.664405410993127</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="1"/>
+        <v>7.02175177905763</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView zoomScale="86" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="22" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" style="22" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="38" customWidth="1"/>
+    <col min="2" max="5" width="8.42578125" style="38" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="13" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="56">
+      <c r="B1" s="67">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="56">
+      <c r="C1" s="69"/>
+      <c r="D1" s="67">
         <v>1.5</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="21">
+      <c r="E1" s="69"/>
+      <c r="F1" s="37">
         <v>1</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="37">
         <v>1.5</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="56">
+      <c r="I1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="67">
         <v>1</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="56">
+      <c r="K1" s="68"/>
+      <c r="L1" s="67">
         <v>1.5</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="21">
+      <c r="M1" s="68"/>
+      <c r="N1" s="37">
         <v>1</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="37">
         <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="21">
+      <c r="A4" s="37">
         <v>0</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="37">
         <f>'alpha=0'!$P$2</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
+        <v>15.290605402799999</v>
+      </c>
+      <c r="C4" s="37">
         <f>'alpha=0'!$P$3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
+        <v>14.834909841148473</v>
+      </c>
+      <c r="D4" s="37">
         <f>'alpha=0'!$P$8</f>
         <v>15.801879444000003</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="37">
         <f>'alpha=0'!$P$9</f>
         <v>4.3615335693399997</v>
       </c>
-      <c r="F4" s="21" t="e">
-        <f t="shared" ref="F4:F9" si="0">C4/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" ref="G4:G9" si="1">E4/D4</f>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F11" si="0">C4/B4</f>
+        <v>0.97019767696260872</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" ref="G4:G11" si="1">E4/D4</f>
         <v>0.2760135960280396</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="37">
         <v>0</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="37">
         <f>'alpha=0'!$P$2-SUM('alpha=0'!$E$2:$I$2)-SUM('alpha=0'!$L$2:$M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <f>'alpha=0'!$P$3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
+        <v>10.1300749778</v>
+      </c>
+      <c r="K4" s="37">
+        <f>'alpha=0'!$P$3-SUM('alpha=0'!$E$3:$I$3)-SUM('alpha=0'!$L$3:$M$3)</f>
+        <v>14.088833496744474</v>
+      </c>
+      <c r="L4" s="37">
         <f>'alpha=0'!$P$8-SUM('alpha=0'!$E$8:$I$8)-SUM('alpha=0'!$L$8:$M$8)</f>
         <v>11.090920124000004</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="37">
         <f>'alpha=0'!$P$9-SUM('alpha=0'!$E$9:$I$9)-SUM('alpha=0'!$L$9:$M$9)</f>
         <v>3.5801622033399996</v>
       </c>
-      <c r="N4" s="21" t="e">
-        <f t="shared" ref="N4:N9" si="2">K4/J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="21">
-        <f t="shared" ref="O4:O9" si="3">M4/L4</f>
+      <c r="N4" s="37">
+        <f t="shared" ref="N4:N11" si="2">K4/J4</f>
+        <v>1.3907926177861536</v>
+      </c>
+      <c r="O4" s="37">
+        <f t="shared" ref="O4:O11" si="3">M4/L4</f>
         <v>0.3228011890188236</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="21">
+      <c r="A5" s="37">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="37">
         <f>'alpha=2'!$P$2</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
+        <v>14.762198326</v>
+      </c>
+      <c r="C5" s="37">
         <f>'alpha=2'!$P$3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
+        <v>37.309669716696</v>
+      </c>
+      <c r="D5" s="37">
         <f>'alpha=2'!$P$8</f>
         <v>15.832761125599999</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="37">
         <f>'alpha=2'!$P$9</f>
         <v>45.36743302704599</v>
       </c>
-      <c r="F5" s="21" t="e">
+      <c r="F5" s="37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21">
+        <v>2.5273789778981728</v>
+      </c>
+      <c r="G5" s="37">
         <f t="shared" si="1"/>
         <v>2.8654151140884307</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="37">
         <v>2</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="37">
         <f>'alpha=2'!$P$2-SUM('alpha=2'!$E$2:$I$2)-SUM('alpha=2'!$L$2:$M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <f>'alpha=2'!$P$3</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
+        <v>9.4001359660000006</v>
+      </c>
+      <c r="K5" s="37">
+        <f>'alpha=2'!$P$3-SUM('alpha=2'!$E$3:$I$3)-SUM('alpha=2'!$L$3:$M$3)</f>
+        <v>36.544475933695999</v>
+      </c>
+      <c r="L5" s="37">
         <f>'alpha=2'!$P$8-SUM('alpha=2'!$E$8:$I$8)-SUM('alpha=2'!$L$8:$M$8)</f>
         <v>10.7232855876</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="37">
         <f>'alpha=2'!$P$9-SUM('alpha=2'!$E$9:$I$9)-SUM('alpha=2'!$L$9:$M$9)</f>
         <v>44.529423406583994</v>
       </c>
-      <c r="N5" s="21" t="e">
+      <c r="N5" s="37">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="21">
+        <v>3.8876539728655235</v>
+      </c>
+      <c r="O5" s="37">
         <f t="shared" si="3"/>
         <v>4.1525913902802447</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="21">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="37">
         <f>'alpha=4'!$P$2</f>
         <v>13.821329875350006</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="37">
         <f>'alpha=4'!$P$3</f>
         <v>61.397125553653083</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="37">
         <f>'alpha=4'!$P$8</f>
         <v>13.816587147</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="37">
         <f>'alpha=4'!$P$9</f>
         <v>79.224099191640008</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>4.442201011579451</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="37">
         <f t="shared" si="1"/>
         <v>5.7339846916423181</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="37">
         <v>4</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="37">
         <f>'alpha=4'!$P$2-SUM('alpha=4'!$E$2:$I$2)-SUM('alpha=4'!$L$2:$M$2)</f>
         <v>8.2222421911000048</v>
       </c>
-      <c r="K6" s="21">
-        <f>'alpha=4'!$P$3</f>
-        <v>61.397125553653083</v>
-      </c>
-      <c r="L6" s="21">
+      <c r="K6" s="37">
+        <f>'alpha=4'!$P$3-SUM('alpha=4'!$E$3:$I$3)-SUM('alpha=4'!$L$3:$M$3)</f>
+        <v>60.640849416678087</v>
+      </c>
+      <c r="L6" s="37">
         <f>'alpha=4'!$P$8-SUM('alpha=4'!$E$8:$I$8)-SUM('alpha=4'!$L$8:$M$8)</f>
         <v>8.3165595350000014</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="37">
         <f>'alpha=4'!$P$9-SUM('alpha=4'!$E$9:$I$9)-SUM('alpha=4'!$L$9:$M$9)</f>
         <v>78.294511254240007</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="37">
         <f t="shared" si="2"/>
-        <v>7.4671998375468833</v>
-      </c>
-      <c r="O6" s="21">
+        <v>7.3752205307595435</v>
+      </c>
+      <c r="O6" s="37">
         <f t="shared" si="3"/>
         <v>9.4142909606718757</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="21">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="37">
         <f>'alpha=6'!$P$2</f>
-        <v>11.996202581099999</v>
-      </c>
-      <c r="C7" s="21">
+        <v>12.034435776850003</v>
+      </c>
+      <c r="C7" s="37">
         <f>'alpha=6'!$P$3</f>
-        <v>82.930302404419734</v>
-      </c>
-      <c r="D7" s="21">
+        <v>84.52350526884311</v>
+      </c>
+      <c r="D7" s="37">
         <f>'alpha=6'!$P$8</f>
         <v>9.3827083590000004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="37">
         <f>'alpha=6'!$P$9</f>
         <v>121.09887749747</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
-        <v>6.9130461780527375</v>
-      </c>
-      <c r="G7" s="21">
+        <v>7.0234705503548769</v>
+      </c>
+      <c r="G7" s="37">
         <f t="shared" si="1"/>
         <v>12.906601469852847</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="37">
         <v>6</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="37">
         <f>'alpha=6'!$P$2-SUM('alpha=6'!$E$2:$I$2)-SUM('alpha=6'!$L$2:$M$2)</f>
-        <v>6.1670410460999978</v>
-      </c>
-      <c r="K7" s="21">
-        <f>'alpha=6'!$P$3</f>
-        <v>82.930302404419734</v>
-      </c>
-      <c r="L7" s="21">
+        <v>6.1659584913500005</v>
+      </c>
+      <c r="K7" s="37">
+        <f>'alpha=6'!$P$3-SUM('alpha=6'!$E$3:$I$3)-SUM('alpha=6'!$L$3:$M$3)</f>
+        <v>83.731977844628616</v>
+      </c>
+      <c r="L7" s="37">
         <f>'alpha=6'!$P$8-SUM('alpha=6'!$E$8:$I$8)-SUM('alpha=6'!$L$8:$M$8)</f>
         <v>3.6255348769999998</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="37">
         <f>'alpha=6'!$P$9-SUM('alpha=6'!$E$9:$I$9)-SUM('alpha=6'!$L$9:$M$9)</f>
         <v>120.04377180746999</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="37">
         <f t="shared" si="2"/>
-        <v>13.447340756206641</v>
-      </c>
-      <c r="O7" s="21">
+        <v>13.5797180539073</v>
+      </c>
+      <c r="O7" s="37">
         <f t="shared" si="3"/>
         <v>33.110637707284148</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="21">
+      <c r="A8" s="37">
         <v>8</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="37">
         <f>'alpha=8'!$P$2</f>
         <v>8.6063210130000005</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="37">
         <f>'alpha=8'!$P$3</f>
         <v>107.53846326980981</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="37">
         <f>'alpha=8'!$P$8</f>
         <v>3.8080542617999988</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="37">
         <f>'alpha=8'!$P$9</f>
         <v>156.99298660183402</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>12.495288417358713</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="37">
         <f t="shared" si="1"/>
         <v>41.226562388222447</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="37">
         <v>8</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="37">
         <f>'alpha=8'!$P$2-SUM('alpha=8'!$E$2:$I$2)-SUM('alpha=8'!$L$2:$M$2)</f>
         <v>2.5688178290000008</v>
       </c>
-      <c r="K8" s="21">
-        <f>'alpha=8'!$P$3</f>
-        <v>107.53846326980981</v>
-      </c>
-      <c r="L8" s="21">
+      <c r="K8" s="37">
+        <f>'alpha=8'!$P$3-SUM('alpha=8'!$E$3:$I$3)-SUM('alpha=8'!$L$3:$M$3)</f>
+        <v>106.67711746790981</v>
+      </c>
+      <c r="L8" s="37">
         <f>'alpha=8'!$P$8-SUM('alpha=8'!$E$8:$I$8)-SUM('alpha=8'!$L$8:$M$8)</f>
         <v>-2.2835652761999992</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="37">
         <f>'alpha=8'!$P$9-SUM('alpha=8'!$E$9:$I$9)-SUM('alpha=8'!$L$9:$M$9)</f>
         <v>155.97207701083403</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="37">
         <f t="shared" si="2"/>
-        <v>41.8630165423886</v>
-      </c>
-      <c r="O8" s="21">
+        <v>41.52770829585743</v>
+      </c>
+      <c r="O8" s="37">
         <f t="shared" si="3"/>
         <v>-68.302000663796079</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="21">
+      <c r="A9" s="37">
         <v>10</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="37">
         <f>'alpha=10'!$P$2</f>
+        <v>4.8153628380999978</v>
+      </c>
+      <c r="C9" s="37">
+        <f>'alpha=10'!$P$3</f>
+        <v>129.7581431113436</v>
+      </c>
+      <c r="D9" s="37">
+        <f>'alpha=10'!$P$8</f>
+        <v>-3.0995110149399956</v>
+      </c>
+      <c r="E9" s="37">
+        <f>'alpha=10'!$P$9</f>
+        <v>196.63014667244701</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="0"/>
+        <v>26.946701105194887</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="1"/>
+        <v>-63.439086270275325</v>
+      </c>
+      <c r="I9" s="37">
+        <v>10</v>
+      </c>
+      <c r="J9" s="37">
+        <f>'alpha=10'!$P$2-SUM('alpha=10'!$E$2:$I$2)-SUM('alpha=10'!$L$2:$M$2)</f>
+        <v>-1.4560351049000015</v>
+      </c>
+      <c r="K9" s="37">
+        <f>'alpha=10'!$P$3-SUM('alpha=10'!$E$3:$I$3)-SUM('alpha=10'!$L$3:$M$3)</f>
+        <v>128.9989306864436</v>
+      </c>
+      <c r="L9" s="37">
+        <f>'alpha=10'!$P$8-SUM('alpha=10'!$E$8:$I$8)-SUM('alpha=10'!$L$8:$M$8)</f>
+        <v>-9.3964381059399962</v>
+      </c>
+      <c r="M9" s="37">
+        <f>'alpha=10'!$P$9-SUM('alpha=10'!$E$9:$I$9)-SUM('alpha=10'!$L$9:$M$9)</f>
+        <v>195.50629674214701</v>
+      </c>
+      <c r="N9" s="37">
+        <f t="shared" si="2"/>
+        <v>-88.596030584924023</v>
+      </c>
+      <c r="O9" s="37">
+        <f t="shared" si="3"/>
+        <v>-20.80642627960875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="37">
+        <v>12</v>
+      </c>
+      <c r="B10" s="37">
+        <f>'alpha=12'!$P$2</f>
+        <v>-0.34999916320000113</v>
+      </c>
+      <c r="C10" s="37">
+        <f>'alpha=12'!$P$3</f>
+        <v>154.06572489511822</v>
+      </c>
+      <c r="D10" s="37">
+        <f>'alpha=12'!$P$8</f>
+        <v>-11.922812300600015</v>
+      </c>
+      <c r="E10" s="37">
+        <f>'alpha=12'!$P$9</f>
+        <v>238.82574936645</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="0"/>
+        <v>-440.18883784324925</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="1"/>
+        <v>-20.030991291746755</v>
+      </c>
+      <c r="I10" s="37">
+        <v>12</v>
+      </c>
+      <c r="J10" s="37">
+        <f>'alpha=12'!$P$2-SUM('alpha=12'!$E$2:$I$2)-SUM('alpha=12'!$L$2:$M$2)</f>
+        <v>-6.7232185182000013</v>
+      </c>
+      <c r="K10" s="37">
+        <f>'alpha=12'!$P$3-SUM('alpha=12'!$E$3:$I$3)-SUM('alpha=12'!$L$3:$M$3)</f>
+        <v>153.17714720871822</v>
+      </c>
+      <c r="L10" s="37">
+        <f>'alpha=12'!$P$8-SUM('alpha=12'!$E$8:$I$8)-SUM('alpha=12'!$L$8:$M$8)</f>
+        <v>-18.381853399100013</v>
+      </c>
+      <c r="M10" s="37">
+        <f>'alpha=12'!$P$9-SUM('alpha=12'!$E$9:$I$9)-SUM('alpha=12'!$L$9:$M$9)</f>
+        <v>237.82555986136001</v>
+      </c>
+      <c r="N10" s="37">
+        <f t="shared" si="2"/>
+        <v>-22.78330635752237</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" si="3"/>
+        <v>-12.938062049445138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="37" customFormat="1">
+      <c r="A11" s="37">
+        <v>14</v>
+      </c>
+      <c r="B11" s="37">
+        <f>'alpha=14'!$P$2</f>
+        <v>-5.6411373791999955</v>
+      </c>
+      <c r="C11" s="37">
+        <f>'alpha=14'!$P$3</f>
+        <v>173.71646296307748</v>
+      </c>
+      <c r="D11" s="37">
+        <f>'alpha=14'!$P$8</f>
+        <v>-20.817770992799996</v>
+      </c>
+      <c r="E11" s="37">
+        <f>'alpha=14'!$P$9</f>
+        <v>268.06338514568193</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="0"/>
+        <v>-30.794581178541211</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="1"/>
+        <v>-12.876661254386645</v>
+      </c>
+      <c r="I11" s="37">
+        <v>14</v>
+      </c>
+      <c r="J11" s="37">
+        <f>'alpha=14'!$P$2-SUM('alpha=14'!$E$2:$I$2)-SUM('alpha=14'!$L$2:$M$2)</f>
+        <v>-12.045650726199995</v>
+      </c>
+      <c r="K11" s="37">
+        <f>'alpha=14'!$P$3-SUM('alpha=14'!$E$3:$I$3)-SUM('alpha=14'!$L$3:$M$3)</f>
+        <v>172.77625600557747</v>
+      </c>
+      <c r="L11" s="37">
+        <f>'alpha=14'!$P$8-SUM('alpha=14'!$E$8:$I$8)-SUM('alpha=14'!$L$8:$M$8)</f>
+        <v>-27.564922244799995</v>
+      </c>
+      <c r="M11" s="37">
+        <f>'alpha=14'!$P$9-SUM('alpha=14'!$E$9:$I$9)-SUM('alpha=14'!$L$9:$M$9)</f>
+        <v>266.97959694588195</v>
+      </c>
+      <c r="N11" s="37">
+        <f t="shared" si="2"/>
+        <v>-14.343455570214983</v>
+      </c>
+      <c r="O11" s="37">
+        <f t="shared" si="3"/>
+        <v>-9.685483404410709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="61"/>
+      <c r="B12" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="66"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="62"/>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="21">
-        <f>'alpha=10'!$P$3</f>
+      <c r="I13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="21">
-        <f>'alpha=10'!$P$8</f>
-        <v>-2.7823455908000048</v>
-      </c>
-      <c r="E9" s="21">
-        <f>'alpha=10'!$P$9</f>
-        <v>196.52480152615399</v>
-      </c>
-      <c r="F9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="1"/>
-        <v>-70.63277911125607</v>
-      </c>
-      <c r="I9" s="21">
-        <v>10</v>
-      </c>
-      <c r="J9" s="21">
-        <f>'alpha=10'!$P$2-SUM('alpha=10'!$E$2:$I$2)-SUM('alpha=10'!$L$2:$M$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="21">
-        <f>'alpha=10'!$P$3</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <f>'alpha=10'!$P$8-SUM('alpha=10'!$E$8:$I$8)-SUM('alpha=10'!$L$8:$M$8)</f>
-        <v>-9.1108967528000058</v>
-      </c>
-      <c r="M9" s="21">
-        <f>'alpha=10'!$P$9-SUM('alpha=10'!$E$9:$I$9)-SUM('alpha=10'!$L$9:$M$9)</f>
-        <v>195.36582383695398</v>
-      </c>
-      <c r="N9" s="21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="21">
-        <f t="shared" si="3"/>
-        <v>-21.443094915647375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52" t="s">
+      <c r="K13" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="39" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="41">
+        <v>6.5961484525000058</v>
+      </c>
+      <c r="C14" s="42">
+        <v>6.800243435999997</v>
+      </c>
+      <c r="D14" s="43">
+        <v>14.976120275</v>
+      </c>
+      <c r="E14" s="44">
+        <v>13.25099947999999</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="37">
+        <v>6.5961484525000058</v>
+      </c>
+      <c r="I14" s="37">
+        <v>6.8265770000000003</v>
+      </c>
+      <c r="J14" s="37">
+        <v>14.976120275</v>
+      </c>
+      <c r="K14" s="37">
+        <v>11.805120000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="39" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="45">
+        <v>0.50180440049999997</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.50383618659999996</v>
+      </c>
+      <c r="D15" s="47">
+        <v>22.61169497500001</v>
+      </c>
+      <c r="E15" s="48">
+        <v>33.489657139999991</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.50180440049999997</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.48978959999999999</v>
+      </c>
+      <c r="J15" s="37">
+        <v>22.61169497500001</v>
+      </c>
+      <c r="K15" s="37">
+        <v>33.247280000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="39" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0.50933055024999974</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0.50074443120000023</v>
+      </c>
+      <c r="D16" s="43">
+        <v>22.538329624999982</v>
+      </c>
+      <c r="E16" s="44">
+        <v>33.651306400000017</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.50933055024999974</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0.5065788</v>
+      </c>
+      <c r="J16" s="37">
+        <v>22.538329624999982</v>
+      </c>
+      <c r="K16" s="37">
+        <v>33.221339999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="39" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="45">
+        <v>1.6801392590000011</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1.6315182408</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.45517563150000029</v>
+      </c>
+      <c r="E17" s="48">
+        <v>0.69870516139999994</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1.6801392590000011</v>
+      </c>
+      <c r="I17" s="37">
+        <v>1.6202367</v>
+      </c>
+      <c r="J17" s="37">
+        <v>0.45517563150000029</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.60426429999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="39" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="41">
+        <v>1.1452378777500001</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1.1475015723999999</v>
+      </c>
+      <c r="D18" s="43">
+        <v>-0.2434239013</v>
+      </c>
+      <c r="E18" s="44">
+        <v>-0.2306369689600001</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="37">
+        <v>1.1452378777500001</v>
+      </c>
+      <c r="I18" s="37">
+        <v>1.1388023</v>
+      </c>
+      <c r="J18" s="37">
+        <v>-0.2434239013</v>
+      </c>
+      <c r="K18" s="37">
+        <v>-0.22905487999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="39" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="45">
+        <v>0.50874054174999994</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0.50342739079999965</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0.51464734124999989</v>
+      </c>
+      <c r="E19" s="48">
+        <v>0.49349671819999968</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.50874054174999994</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0.51570650000000007</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0.51464734124999989</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0.51836300000000002</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54" t="s">
+    </row>
+    <row r="20" spans="1:15" ht="39" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="41">
+        <v>2.7737105474999999</v>
+      </c>
+      <c r="C20" s="42">
+        <v>2.7308178420000022</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.54452440677499969</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0.5292039750800005</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="37">
+        <v>2.7737105474999999</v>
+      </c>
+      <c r="I20" s="37">
+        <v>2.732138</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0.54452440677499969</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0.51221401</v>
+      </c>
+      <c r="M20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="6" t="s">
+      <c r="N20" s="49">
+        <v>1.014994</v>
+      </c>
+      <c r="O20" s="50">
+        <v>0.18339900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="39" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="51">
+        <v>0.1062182461</v>
+      </c>
+      <c r="C21" s="52">
+        <v>0.1058592917199999</v>
+      </c>
+      <c r="D21" s="53">
+        <v>5.7200428097999969E-5</v>
+      </c>
+      <c r="E21" s="54">
+        <v>2.0480289519999991E-3</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.1062182461</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.10519506000000001</v>
+      </c>
+      <c r="J21" s="37">
+        <v>5.7200428097999969E-5</v>
+      </c>
+      <c r="K21" s="37">
+        <v>2.11765E-3</v>
+      </c>
+      <c r="M21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="39" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="31">
-        <v>6.5961484525000058</v>
-      </c>
-      <c r="C13" s="32">
-        <v>6.800243435999997</v>
-      </c>
-      <c r="D13" s="33">
-        <v>14.976120275</v>
-      </c>
-      <c r="E13" s="34">
-        <v>13.25099947999999</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="21">
-        <v>6.5961484525000058</v>
-      </c>
-      <c r="I13" s="21">
-        <v>6.8265770000000003</v>
-      </c>
-      <c r="J13" s="21">
-        <v>14.976120275</v>
-      </c>
-      <c r="K13" s="21">
-        <v>11.805120000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="39" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="35">
-        <v>0.50180440049999997</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0.50383618659999996</v>
-      </c>
-      <c r="D14" s="27">
-        <v>22.61169497500001</v>
-      </c>
-      <c r="E14" s="37">
-        <v>33.489657139999991</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0.50180440049999997</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.48978959999999999</v>
-      </c>
-      <c r="J14" s="21">
-        <v>22.61169497500001</v>
-      </c>
-      <c r="K14" s="21">
-        <v>33.247280000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="39" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="31">
-        <v>0.50933055024999974</v>
-      </c>
-      <c r="C15" s="32">
-        <v>0.50074443120000023</v>
-      </c>
-      <c r="D15" s="33">
-        <v>22.538329624999982</v>
-      </c>
-      <c r="E15" s="34">
-        <v>33.651306400000017</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0.50933055024999974</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0.5065788</v>
-      </c>
-      <c r="J15" s="21">
-        <v>22.538329624999982</v>
-      </c>
-      <c r="K15" s="21">
-        <v>33.221339999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="39" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="35">
-        <v>1.6801392590000011</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1.6315182408</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0.45517563150000029</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.69870516139999994</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1.6801392590000011</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1.6202367</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0.45517563150000029</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0.60426429999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="39" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="31">
-        <v>1.1452378777500001</v>
-      </c>
-      <c r="C17" s="32">
-        <v>1.1475015723999999</v>
-      </c>
-      <c r="D17" s="33">
-        <v>-0.2434239013</v>
-      </c>
-      <c r="E17" s="34">
-        <v>-0.2306369689600001</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1.1452378777500001</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1.1388023</v>
-      </c>
-      <c r="J17" s="21">
-        <v>-0.2434239013</v>
-      </c>
-      <c r="K17" s="21">
-        <v>-0.22905487999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="39" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="35">
-        <v>0.50874054174999994</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0.50342739079999965</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0.51464734124999989</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0.49349671819999968</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="21">
-        <v>0.50874054174999994</v>
-      </c>
-      <c r="I18" s="21">
-        <v>0.51570650000000007</v>
-      </c>
-      <c r="J18" s="21">
-        <v>0.51464734124999989</v>
-      </c>
-      <c r="K18" s="21">
-        <v>0.51836300000000002</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="39" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="31">
-        <v>2.7737105474999999</v>
-      </c>
-      <c r="C19" s="32">
-        <v>2.7308178420000022</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.54452440677499969</v>
-      </c>
-      <c r="E19" s="34">
-        <v>0.5292039750800005</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="21">
-        <v>2.7737105474999999</v>
-      </c>
-      <c r="I19" s="21">
-        <v>2.732138</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0.54452440677499969</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.51221401</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="38">
-        <v>1.014994</v>
-      </c>
-      <c r="O19" s="39">
-        <v>0.18339900000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="39" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="40">
-        <v>0.1062182461</v>
-      </c>
-      <c r="C20" s="41">
-        <v>0.1058592917199999</v>
-      </c>
-      <c r="D20" s="42">
-        <v>5.7200428097999969E-5</v>
-      </c>
-      <c r="E20" s="43">
-        <v>2.0480289519999991E-3</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0.1062182461</v>
-      </c>
-      <c r="I20" s="21">
-        <v>0.10519506000000001</v>
-      </c>
-      <c r="J20" s="21">
-        <v>5.7200428097999969E-5</v>
-      </c>
-      <c r="K20" s="21">
-        <v>2.11765E-3</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="44">
+      <c r="N21" s="55">
         <v>24.942198999999999</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O21" s="56">
         <v>26.680834000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39" customHeight="1">
-      <c r="A21" s="20" t="s">
+    <row r="22" spans="1:15" ht="39" customHeight="1">
+      <c r="A22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B22" s="57">
         <v>13.821329875349999</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C22" s="58">
         <v>13.92394839152</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D22" s="59">
         <v>61.397125553653083</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E22" s="60">
         <v>81.884779934671997</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G22" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H22" s="37">
         <v>13.821329875349999</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I22" s="37">
         <v>13.935023960000001</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J22" s="37">
         <v>61.397125553653083</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K22" s="37">
         <v>79.681644079999984</v>
       </c>
     </row>
-    <row r="41" ht="28" customHeight="1"/>
     <row r="42" ht="28" customHeight="1"/>
     <row r="43" ht="28" customHeight="1"/>
     <row r="44" ht="28" customHeight="1"/>
@@ -4277,15 +5731,16 @@
     <row r="49" ht="28" customHeight="1"/>
     <row r="50" ht="28" customHeight="1"/>
     <row r="51" ht="28" customHeight="1"/>
+    <row r="52" ht="28" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4356,69 +5811,153 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3">
+        <v>6.3599144000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1656747999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.1567852000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.78587419999999997</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.77483674000000002</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.30163004999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.30316042999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.53178363999999989</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.30218604999999998</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.30763074000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.2074235</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.4573537999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.3463095000000002E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5.4481680999999997E-2</v>
+      </c>
       <c r="P2" s="3">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>14.762198326</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3">
+        <v>9.567123800000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13.455057</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13.340980999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.31941201000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.33677438999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-8.9774900000000019E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-8.9783927000000013E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-8.3221625999999979E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.10313661</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7.8248361000000016E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.39711256</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-2.5324724E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2.1228063999999999E-5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-9.2065367999999987E-5</v>
+      </c>
       <c r="P3" s="3">
         <f>SUM(B3:O3)</f>
-        <v>0</v>
+        <v>37.309669716696</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3">
+        <v>2.6698933999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-0.81139242</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.79918213999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-8.5474684999999995E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-8.2185896999999994E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.8647475999999991E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-2.8913227E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-8.0150063999999993E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.4099148000000004E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7.6403258000000002E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.0492544E-5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4.1150644E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.8240203000000001E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.8181459000000001E-4</v>
+      </c>
       <c r="P4" s="3">
         <f>SUM(B4:O4)</f>
-        <v>0</v>
+        <v>0.94524681692400014</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4703,52 +6242,52 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="37" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -4756,52 +6295,52 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="37">
         <v>6.5961484525000058</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="37">
         <v>0.50180440049999997</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="37">
         <v>0.50933055024999974</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="37">
         <v>0.84365433550000024</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="37">
         <v>0.83648492350000025</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="37">
         <v>0.3013480702500001</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="37">
         <v>0.30325609499999989</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="37">
         <v>0.54063371250000036</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="37">
         <v>0.25176270399999989</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="37">
         <v>0.25697783774999999</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="37">
         <v>1.3007371249999999</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="37">
         <v>1.4729734225</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="37">
         <v>5.3217572000000053E-2</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="37">
         <v>5.3000674099999978E-2</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="37">
         <f>SUM(B2:O2)</f>
         <v>13.821329875350006</v>
       </c>
@@ -4810,52 +6349,52 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="37">
         <v>14.976120275</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="37">
         <v>22.61169497500001</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="37">
         <v>22.538329624999982</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="37">
         <v>0.2110758675000001</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="37">
         <v>0.24409976400000019</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="37">
         <v>-8.416998124999997E-2</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="37">
         <v>-8.4078916524999978E-2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="37">
         <v>-7.5175003525000048E-2</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="37">
         <v>0.26396995849999988</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="37">
         <v>0.25067738275000001</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="37">
         <v>0.44545501699999968</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="37">
         <v>9.906938977500003E-2</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="37">
         <v>4.882596770999997E-5</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="37">
         <v>8.3744603880000008E-6</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="37">
         <f>SUM(B3:O3)</f>
         <v>61.397125553653083</v>
       </c>
@@ -4864,52 +6403,52 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="37">
         <v>4.6123092149999998</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="37">
         <v>-1.3657179325</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="37">
         <v>-1.3655065074999999</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="37">
         <v>-7.2446200750000092E-2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="37">
         <v>-7.1194490775000008E-2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="37">
         <v>-2.8995197125E-2</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="37">
         <v>-2.9333532024999991E-2</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="37">
         <v>-7.6520417625000045E-2</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="37">
         <v>7.9209426999999999E-2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="37">
         <v>7.9535272549999952E-2</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="37">
         <v>1.0338788285000001E-5</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="37">
         <v>1.8404354849999999E-2</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="37">
         <v>-1.8180618149999999E-4</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="37">
         <v>-1.8044491824999981E-4</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="37">
         <f>SUM(B4:O4)</f>
         <v>1.7793920787885349</v>
       </c>
@@ -4918,10 +6457,10 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="37">
         <v>17117186</v>
       </c>
       <c r="Q5" s="2">
@@ -4929,434 +6468,434 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="37">
         <v>6.72187044</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="37">
         <v>0.48912414999999998</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="37">
         <v>0.49507729599999978</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="37">
         <v>0.82234612799999995</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="37">
         <v>0.8141309520000003</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="37">
         <v>0.30149972000000003</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="37">
         <v>0.30705825199999998</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="37">
         <v>0.52004083999999984</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="37">
         <v>0.25228231800000001</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="37">
         <v>0.25305645399999999</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="37">
         <v>1.26593578</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="37">
         <v>1.46901594</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="37">
         <v>5.2332346799999999E-2</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="37">
         <v>5.2816530200000003E-2</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="37">
         <f>SUM(B8:O8)</f>
         <v>13.816587147</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="37">
         <v>11.519717999999999</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="37">
         <v>33.093512200000013</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="37">
         <v>33.163551200000001</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="37">
         <v>0.30771497000000009</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="37">
         <v>0.31377027800000001</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="37">
         <v>-8.1174593200000006E-2</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="37">
         <v>-8.1372095800000016E-2</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="37">
         <v>-6.7435916200000015E-2</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="37">
         <v>0.25195894800000013</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="37">
         <v>0.26366839199999997</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="37">
         <v>0.44130239799999998</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="37">
         <v>9.6782896599999987E-2</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="37">
         <v>1.0230564199999999E-3</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="37">
         <v>1.07945782E-3</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="37">
         <f>SUM(B9:O9)</f>
         <v>79.224099191640008</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="37">
         <v>3.1176056399999998</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="37">
         <v>-1.7883285200000001</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="37">
         <v>-1.8142688</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="37">
         <v>-6.9707623200000013E-2</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="37">
         <v>-6.7105550800000011E-2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="37">
         <v>-2.8622329799999981E-2</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="37">
         <v>-2.9397809399999999E-2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="37">
         <v>-7.6062309800000019E-2</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="37">
         <v>7.6598194999999994E-2</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="37">
         <v>7.3988625999999988E-2</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="37">
         <v>7.348695860000002E-6</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="37">
         <v>2.3793468200000001E-2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="37">
         <v>-1.8187709000000001E-4</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="37">
         <v>-1.85751258E-4</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="37">
         <f>SUM(B10:O10)</f>
         <v>-0.58186729345214039</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="37">
         <v>18917500</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="37">
         <f>B2</f>
         <v>6.5961484525000058</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="37">
         <f>C2</f>
         <v>0.50180440049999997</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="37">
         <f>D2</f>
         <v>0.50933055024999974</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="37">
         <f>E2+F2</f>
         <v>1.6801392590000006</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="37">
         <f>I2+G2+H2</f>
         <v>1.1452378777500003</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="37">
         <f>J2+K2</f>
         <v>0.50874054174999994</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="37">
         <f>L2+M2</f>
         <v>2.7737105474999999</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="37">
         <f>N2+O2</f>
         <v>0.10621824610000002</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="37">
         <f>+SUM(C14:J14)</f>
         <v>13.821329875350004</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="37">
         <f>B8</f>
         <v>6.72187044</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="37">
         <f>C8</f>
         <v>0.48912414999999998</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="37">
         <f>D8</f>
         <v>0.49507729599999978</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="37">
         <f>E8+F8</f>
         <v>1.6364770800000001</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="37">
         <f>I8+G8+H8</f>
         <v>1.1285988119999999</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="37">
         <f>J8+K8</f>
         <v>0.50533877199999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="37">
         <f>L8+M8</f>
         <v>2.7349517199999998</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="37">
         <f>N8+O8</f>
         <v>0.105148877</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="37">
         <f>+SUM(C15:J15)</f>
         <v>13.816587147</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="37">
         <f>B3</f>
         <v>14.976120275</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="37">
         <f>C3</f>
         <v>22.61169497500001</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="37">
         <f>D3</f>
         <v>22.538329624999982</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="37">
         <f>E3+F3</f>
         <v>0.45517563150000029</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="37">
         <f>I3+G3+H3</f>
         <v>-0.24342390130000002</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="37">
         <f>J3+K3</f>
         <v>0.51464734124999989</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="37">
         <f>L3+M3</f>
         <v>0.54452440677499969</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="37">
         <f>N3+O3</f>
         <v>5.7200428097999969E-5</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="37">
         <f>+SUM(C16:J16)</f>
         <v>61.397125553653076</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="37">
         <f>B9</f>
         <v>11.519717999999999</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="37">
         <f>C9</f>
         <v>33.093512200000013</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="37">
         <f>D9</f>
         <v>33.163551200000001</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="37">
         <f>E9+F9</f>
         <v>0.62148524800000016</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="37">
         <f>I9+G9+H9</f>
         <v>-0.22998260520000005</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="37">
         <f>J9+K9</f>
         <v>0.5156273400000001</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="37">
         <f>L9+M9</f>
         <v>0.53808529459999999</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="37">
         <f>N9+O9</f>
         <v>2.1025142399999997E-3</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="37">
         <f>+SUM(C17:J17)</f>
         <v>79.224099191639979</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="37" t="s">
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -5373,16 +6912,16 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="37">
         <v>1.014994</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="37">
         <v>0.18339900000000001</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="37">
         <v>0.93056099999999997</v>
       </c>
       <c r="H22" s="2">
@@ -5400,16 +6939,16 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="37">
         <v>24.942198999999999</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="37">
         <v>26.680834000000001</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="37">
         <v>45.355972999999999</v>
       </c>
       <c r="H23" s="2">
@@ -5427,16 +6966,16 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="37">
         <v>-2.5419360000000002</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="37">
         <v>-2.4785300000000001</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="37">
         <v>-4.3213280000000003</v>
       </c>
       <c r="H24" s="2">
@@ -5454,16 +6993,16 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="37">
         <v>10137869</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="37">
         <v>9432853</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="37">
         <v>19446836</v>
       </c>
       <c r="H25" s="2"/>
@@ -5471,7 +7010,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="D26" s="21">
+      <c r="D26" s="37">
         <v>8123967</v>
       </c>
     </row>
@@ -5483,6 +7022,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5546,50 +7098,50 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>6.5355979599999996</v>
+        <v>6.5069022950000006</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.42995095100000003</v>
+        <v>-0.41778339400000009</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.42851382100000018</v>
+        <v>-0.41293419949999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0.90560927600000019</v>
+        <v>0.90877358500000027</v>
       </c>
       <c r="F2" s="3">
-        <v>0.89099677300000024</v>
+        <v>0.89543405250000063</v>
       </c>
       <c r="G2" s="3">
-        <v>0.29833236899999999</v>
+        <v>0.29718624349999989</v>
       </c>
       <c r="H2" s="3">
-        <v>0.30274990800000001</v>
+        <v>0.30152286299999997</v>
       </c>
       <c r="I2" s="3">
-        <v>0.51724898899999994</v>
+        <v>0.51986291650000038</v>
       </c>
       <c r="J2" s="3">
-        <v>0.19019013300000001</v>
+        <v>0.18940020599999999</v>
       </c>
       <c r="K2" s="3">
-        <v>0.19280203000000001</v>
+        <v>0.19145051249999989</v>
       </c>
       <c r="L2" s="3">
-        <v>1.41269548</v>
+        <v>1.413115040000001</v>
       </c>
       <c r="M2" s="3">
-        <v>1.5015287399999999</v>
+        <v>1.5325825850000001</v>
       </c>
       <c r="N2" s="3">
-        <v>5.3101150100000022E-2</v>
+        <v>5.3800794100000042E-2</v>
       </c>
       <c r="O2" s="3">
-        <v>5.3814545000000019E-2</v>
+        <v>5.5122277249999997E-2</v>
       </c>
       <c r="P2" s="3">
         <f>SUM(B2:O2)</f>
-        <v>11.996202581099999</v>
+        <v>12.034435776850003</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5597,50 +7149,50 @@
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>17.997563100000011</v>
+        <v>19.269504449999989</v>
       </c>
       <c r="C3" s="3">
-        <v>31.707992200000021</v>
+        <v>31.867762949999999</v>
       </c>
       <c r="D3" s="3">
-        <v>31.66393870000001</v>
+        <v>31.851378300000011</v>
       </c>
       <c r="E3" s="3">
-        <v>0.24752099</v>
+        <v>0.23951845950000011</v>
       </c>
       <c r="F3" s="3">
-        <v>0.28770437700000001</v>
+        <v>0.27219670350000003</v>
       </c>
       <c r="G3" s="3">
-        <v>-7.8271218399999981E-2</v>
+        <v>-7.8061781050000084E-2</v>
       </c>
       <c r="H3" s="3">
-        <v>-7.833152530000001E-2</v>
+        <v>-7.8083555100000007E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>-6.6039315599999995E-2</v>
+        <v>-6.5961185250000012E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>0.3794366629999999</v>
+        <v>0.37408833750000009</v>
       </c>
       <c r="K3" s="3">
-        <v>0.36473113299999982</v>
+        <v>0.36914596150000012</v>
       </c>
       <c r="L3" s="3">
-        <v>0.34028668800000011</v>
+        <v>0.35522452799999998</v>
       </c>
       <c r="M3" s="3">
-        <v>0.16365855419999989</v>
+        <v>0.1466942546145</v>
       </c>
       <c r="N3" s="3">
-        <v>3.4541153095000002E-5</v>
+        <v>3.3802159959499997E-5</v>
       </c>
       <c r="O3" s="3">
-        <v>7.7517366600000028E-5</v>
+        <v>6.404346865449997E-5</v>
       </c>
       <c r="P3" s="3">
         <f>SUM(B3:O3)</f>
-        <v>82.930302404419734</v>
+        <v>84.52350526884311</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5648,50 +7200,50 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>5.3320585400000002</v>
+        <v>5.9624865399999996</v>
       </c>
       <c r="C4" s="3">
-        <v>-1.9725527899999999</v>
+        <v>-1.989376394999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-1.9908806999999999</v>
+        <v>-2.0115853149999992</v>
       </c>
       <c r="E4" s="3">
-        <v>-6.3830029700000013E-2</v>
+        <v>-6.431455409999999E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>-6.3051612999999992E-2</v>
+        <v>-6.1716642350000003E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>-2.9031617699999991E-2</v>
+        <v>-2.8887387099999998E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>-2.96936545E-2</v>
+        <v>-2.9533814950000011E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>-7.0978131900000033E-2</v>
+        <v>-7.081982180000003E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>8.4794279499999986E-2</v>
+        <v>8.6433558900000027E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>8.3941735699999978E-2</v>
+        <v>8.4056221599999981E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>-1.1118328019E-6</v>
+        <v>5.824711440499999E-7</v>
       </c>
       <c r="M4" s="3">
-        <v>7.1043682029999951E-3</v>
+        <v>1.1035826059500001E-2</v>
       </c>
       <c r="N4" s="3">
-        <v>-1.8132864399999989E-4</v>
+        <v>-1.8335800149999981E-4</v>
       </c>
       <c r="O4" s="3">
-        <v>-1.8442460799999999E-4</v>
+        <v>-1.8837843950000009E-4</v>
       </c>
       <c r="P4" s="3">
         <f>SUM(B4:O4)</f>
-        <v>1.2875135215181985</v>
+        <v>1.8874070622896455</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5965,12 +7517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6449,12 +8001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6513,69 +8065,153 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3">
+        <v>5.2077079599999987</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-3.4668209200000009</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-3.41924853</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.99832600000000016</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.99572264399999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.29370723999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.29445930100000012</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.50034026799999987</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5.5370467299999983E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5.9183745200000012E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.50614767</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.6826948199999989</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.4370331100000009E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5.3401841499999991E-2</v>
+      </c>
       <c r="P2" s="3">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>4.8153628380999978</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3">
+        <v>27.387940499999981</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50.166521099999983</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50.193797500000016</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.15029990300000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.165435531</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-6.5198198200000015E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-6.4855619599999983E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-4.9120817800000022E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.63064968600000004</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.61982519400000025</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.34992517200000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.27272645449999983</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.0299890090000001E-4</v>
+      </c>
+      <c r="O3" s="3">
+        <v>9.3707542699999986E-5</v>
+      </c>
       <c r="P3" s="3">
         <f>SUM(B3:O3)</f>
-        <v>0</v>
+        <v>129.7581431113436</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3">
+        <v>8.3800007500000007</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-3.2881397099999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-3.3166639800000008</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-4.3872305900000012E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-4.49039538E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.9330691799999999E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-2.9515377799999999E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-6.3369322500000019E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8.2527668400000018E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8.0657347999999976E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-2.5321243686000002E-6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-8.6525753210000018E-3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.8817942800000001E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.825245480000001E-4</v>
+      </c>
       <c r="P4" s="3">
         <f>SUM(B4:O4)</f>
-        <v>0</v>
+        <v>1.7183646131786317</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6673,50 +8309,50 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>5.1442056599999999</v>
+        <v>4.8641936099999992</v>
       </c>
       <c r="C8" s="3">
-        <v>-7.1418517000000019</v>
+        <v>-7.1369527899999978</v>
       </c>
       <c r="D8" s="3">
-        <v>-7.1249605600000034</v>
+        <v>-7.1342620600000002</v>
       </c>
       <c r="E8" s="3">
-        <v>1.05889828</v>
+        <v>1.05270898</v>
       </c>
       <c r="F8" s="3">
-        <v>1.09197732</v>
+        <v>1.09542695</v>
       </c>
       <c r="G8" s="3">
-        <v>0.28971690999999999</v>
+        <v>0.29046919700000001</v>
       </c>
       <c r="H8" s="3">
-        <v>0.2948331500000001</v>
+        <v>0.29652334899999988</v>
       </c>
       <c r="I8" s="3">
-        <v>0.49544848200000002</v>
+        <v>0.50007865499999982</v>
       </c>
       <c r="J8" s="3">
-        <v>-6.3016657999999989E-2</v>
+        <v>-7.1061208399999992E-2</v>
       </c>
       <c r="K8" s="3">
-        <v>-2.7269551600000001E-2</v>
+        <v>-2.149451383999999E-2</v>
       </c>
       <c r="L8" s="3">
-        <v>1.4846183799999999</v>
+        <v>1.480163140000001</v>
       </c>
       <c r="M8" s="3">
-        <v>1.61305864</v>
+        <v>1.5815568200000001</v>
       </c>
       <c r="N8" s="3">
-        <v>5.308131499999999E-2</v>
+        <v>5.3843363899999983E-2</v>
       </c>
       <c r="O8" s="3">
-        <v>4.8914741799999988E-2</v>
+        <v>4.9295492399999988E-2</v>
       </c>
       <c r="P8" s="3">
         <f>SUM(B8:O8)</f>
-        <v>-2.7823455908000048</v>
+        <v>-3.0995110149399956</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6724,50 +8360,50 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>26.7331088</v>
+        <v>26.695136999999988</v>
       </c>
       <c r="C9" s="3">
-        <v>83.406220200000007</v>
+        <v>83.60057070000002</v>
       </c>
       <c r="D9" s="3">
-        <v>83.688668599999986</v>
+        <v>83.672083100000037</v>
       </c>
       <c r="E9" s="3">
-        <v>0.32680558799999992</v>
+        <v>0.33529204499999998</v>
       </c>
       <c r="F9" s="3">
-        <v>0.193464618</v>
+        <v>0.18940805599999999</v>
       </c>
       <c r="G9" s="3">
-        <v>-6.1180875000000003E-2</v>
+        <v>-6.0732488000000043E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>-6.1274894000000017E-2</v>
+        <v>-6.1204001399999999E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>-4.1326973800000007E-2</v>
+        <v>-4.2076570099999967E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>0.77789596999999999</v>
+        <v>0.78615046700000035</v>
       </c>
       <c r="K9" s="3">
-        <v>0.75793905200000022</v>
+        <v>0.75036225099999998</v>
       </c>
       <c r="L9" s="3">
-        <v>0.4315351300000001</v>
+        <v>0.43092597599999999</v>
       </c>
       <c r="M9" s="3">
-        <v>0.37095509599999987</v>
+        <v>0.33223691280000012</v>
       </c>
       <c r="N9" s="3">
-        <v>1.0118628180000001E-3</v>
+        <v>1.025521322E-3</v>
       </c>
       <c r="O9" s="3">
-        <v>9.7935213600000006E-4</v>
+        <v>9.6770282500000058E-4</v>
       </c>
       <c r="P9" s="3">
         <f>SUM(B9:O9)</f>
-        <v>196.52480152615399</v>
+        <v>196.63014667244701</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6775,50 +8411,50 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>8.0264746600000034</v>
+        <v>8.0446965399999986</v>
       </c>
       <c r="C10" s="3">
-        <v>-4.9070739400000001</v>
+        <v>-4.9311092300000006</v>
       </c>
       <c r="D10" s="3">
-        <v>-4.9025359000000002</v>
+        <v>-4.8939250799999989</v>
       </c>
       <c r="E10" s="3">
-        <v>-6.7473099999999966E-2</v>
+        <v>-6.9866186199999999E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>-6.4088535200000019E-2</v>
+        <v>-6.4185967699999985E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>-2.8570828399999991E-2</v>
+        <v>-2.865107900000001E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>-2.9240593199999991E-2</v>
+        <v>-2.9441141299999991E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>-6.2927988599999998E-2</v>
+        <v>-6.36930156E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>6.7405820000000005E-2</v>
+        <v>6.5526884300000005E-2</v>
       </c>
       <c r="K10" s="3">
-        <v>7.4697250599999987E-2</v>
+        <v>7.5195348399999973E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>6.7349523496000031E-7</v>
+        <v>1.3859244214799991E-6</v>
       </c>
       <c r="M10" s="3">
-        <v>-2.2968637720000001E-2</v>
+        <v>-1.6680055433E-2</v>
       </c>
       <c r="N10" s="3">
-        <v>-1.8254347000000001E-4</v>
+        <v>-1.8586197500000009E-4</v>
       </c>
       <c r="O10" s="3">
-        <v>-1.7223847199999989E-4</v>
+        <v>-1.7236030800000011E-4</v>
       </c>
       <c r="P10" s="3">
         <f>SUM(B10:O10)</f>
-        <v>-1.9166559009667616</v>
+        <v>-1.9124898188915798</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6849,12 +8485,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6913,69 +8549,153 @@
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="3">
+        <v>4.2410289799999994</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-5.5220574700000009</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-5.4566923900000006</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0380395600000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.02885859</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.28388584300000003</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.28876658199999988</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.48189188000000022</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-3.3748977499999999E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-5.636344560000002E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.51024672</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.74153018</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.2292230300000027E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5.2322554599999987E-2</v>
+      </c>
       <c r="P2" s="3">
         <f>SUM(B2:O2)</f>
-        <v>0</v>
+        <v>-0.34999916320000113</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="B3" s="3">
+        <v>32.671607599999987</v>
+      </c>
+      <c r="C3" s="3">
+        <v>59.236856199999977</v>
+      </c>
+      <c r="D3" s="3">
+        <v>59.575840299999989</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1166481664999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.13256712100000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-5.7706580800000032E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-5.6785819899999999E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-4.2165721400000022E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.83747678500000033</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.8551912469999996</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.41487726100000022</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.38114325999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>9.7851725399999992E-5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7.7224992900000003E-5</v>
+      </c>
       <c r="P3" s="3">
         <f>SUM(B3:O3)</f>
-        <v>0</v>
+        <v>154.06572489511822</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="3">
+        <v>10.16588825</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-3.96894072</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-4.0697356699999983</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-4.1548571499999992E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-3.8232286100000012E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.85755426E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-2.9211248500000009E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-5.9299778699999993E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8.0408787999999981E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>7.7266638500000012E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-2.6555923900000002E-6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-2.7346019999999999E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.79411971E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.79058951E-4</v>
+      </c>
       <c r="P4" s="3">
         <f>SUM(B4:O4)</f>
-        <v>0</v>
+        <v>2.060312712585612</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7072,69 +8792,153 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="B8" s="3">
+        <v>4.4268206049999979</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-11.241991100000011</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-11.349700650000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.139146695</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.1359571449999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.28468149149999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.29440572999999981</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.48315793699999982</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.13319679779999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.17822303849999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.508958005</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.6127340949999991</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.3601061299999987E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5.083652089999996E-2</v>
+      </c>
       <c r="P8" s="3">
         <f>SUM(B8:O8)</f>
-        <v>0</v>
+        <v>-11.922812300600015</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="B9" s="3">
+        <v>33.637382700000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100.67868199999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>101.3480528</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1643056692399999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.11602386889999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-5.2983481199999953E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-5.3560266050000013E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-3.4026926850000028E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.0289803710000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.1306853649999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.48118473800000011</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.37924590304999989</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7.7764448249999978E-4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>9.9898087750000019E-4</v>
+      </c>
       <c r="P9" s="3">
         <f>SUM(B9:O9)</f>
-        <v>0</v>
+        <v>238.82574936645</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="3">
+        <v>10.3095915</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-6.2092747299999971</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-6.1449286300000026</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-6.2500579650000013E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-5.9849885600000013E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-2.8779464299999981E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2.9739224950000011E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-5.9299399399999973E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7.9146137100000027E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.1718890950000012E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9.1731838621550009E-7</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-2.4516255153000009E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-1.45631173E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1.773097415E-4</v>
+      </c>
       <c r="P10" s="3">
         <f>SUM(B10:O10)</f>
-        <v>0</v>
+        <v>-2.1487536645991132</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7160,112 +8964,112 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7273,821 +9077,490 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H32"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="11" width="10.7109375" style="37" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="37"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="56">
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="21">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.2897780499999989</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-7.4860062699999972</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-7.5451987699999972</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.048583</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.0410199099999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.28477079900000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.28389902900000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.46925866899999991</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-0.221865759</v>
+      </c>
+      <c r="K2" s="3">
+        <v>-0.17917038199999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.4846066600000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1.7923752799999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4.7811294600000012E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4.9001110199999989E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <f>SUM(B2:O2)</f>
+        <v>-5.6411373791999955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>37.721099099999989</v>
+      </c>
+      <c r="C3" s="3">
+        <v>66.226199799999989</v>
+      </c>
+      <c r="D3" s="3">
+        <v>66.554559400000031</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.7896217700000024E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9.8593598100000013E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-5.1583037700000008E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-5.1380736199999992E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-3.3550308399999999E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.1234077200000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.15094567</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.45847271599999978</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.42175850799999981</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2.2071371699999989E-5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.2244205819999999E-5</v>
+      </c>
+      <c r="P3" s="3">
+        <f>SUM(B3:O3)</f>
+        <v>173.71646296307748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11.6862119</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4.6035352800000018</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-4.6194561299999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-2.8928358600000009E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-3.266245990000001E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-2.914760210000001E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-2.9081448900000001E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-5.5206784600000003E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7.398775649999996E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8.3785018499999989E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-1.827573714E-6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>-3.3631326700000012E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-1.6126572800000011E-4</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.6479322000000001E-4</v>
+      </c>
+      <c r="P4" s="3">
+        <f>SUM(B4:O4)</f>
+        <v>2.4120073976782836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>17117186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="21">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21">
-        <f>COS(RADIANS($A4))*(プロット!B4)+SIN(RADIANS($A4))*(プロット!C4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <f>-SIN(RADIANS($A4))*(プロット!B4)+COS(RADIANS($A4))*(プロット!C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <f>COS(RADIANS($A4))*(プロット!D4)+SIN(RADIANS($A4))*(プロット!E4)</f>
-        <v>15.801879444000003</v>
-      </c>
-      <c r="E4" s="21">
-        <f>-SIN(RADIANS($A4))*(プロット!D4)+COS(RADIANS($A4))*(プロット!E4)</f>
-        <v>4.3615335693399997</v>
-      </c>
-      <c r="F4" s="21" t="e">
-        <f t="shared" ref="F4:F9" si="0">C4/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" ref="G4:G9" si="1">E4/D4</f>
-        <v>0.2760135960280396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="21">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
-        <f>COS(RADIANS($A5))*(プロット!B5)+SIN(RADIANS($A5))*(プロット!C5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f>-SIN(RADIANS($A5))*(プロット!B5)+COS(RADIANS($A5))*(プロット!C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <f>COS(RADIANS($A5))*(プロット!D5)+SIN(RADIANS($A5))*(プロット!E5)</f>
-        <v>17.406416814637499</v>
-      </c>
-      <c r="E5" s="21">
-        <f>-SIN(RADIANS($A5))*(プロット!D5)+COS(RADIANS($A5))*(プロット!E5)</f>
-        <v>44.787241017938562</v>
-      </c>
-      <c r="F5" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="1"/>
-        <v>2.5730304803614628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
-        <f>COS(RADIANS($A6))*(プロット!B6)+SIN(RADIANS($A6))*(プロット!C6)</f>
-        <v>18.070508787079429</v>
-      </c>
-      <c r="C6" s="21">
-        <f>-SIN(RADIANS($A6))*(プロット!B6)+COS(RADIANS($A6))*(プロット!C6)</f>
-        <v>60.283438007054379</v>
-      </c>
-      <c r="D6" s="21">
-        <f>COS(RADIANS($A6))*(プロット!D6)+SIN(RADIANS($A6))*(プロット!E6)</f>
-        <v>19.309324430292765</v>
-      </c>
-      <c r="E6" s="21">
-        <f>-SIN(RADIANS($A6))*(プロット!D6)+COS(RADIANS($A6))*(プロット!E6)</f>
-        <v>78.067316869245346</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>3.3360122129022489</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="1"/>
-        <v>4.0429854058887811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
-        <f>COS(RADIANS($A7))*(プロット!B7)+SIN(RADIANS($A7))*(プロット!C7)</f>
-        <v>20.599063196833125</v>
-      </c>
-      <c r="C7" s="21">
-        <f>-SIN(RADIANS($A7))*(プロット!B7)+COS(RADIANS($A7))*(プロット!C7)</f>
-        <v>81.222056909857756</v>
-      </c>
-      <c r="D7" s="21">
-        <f>COS(RADIANS($A7))*(プロット!D7)+SIN(RADIANS($A7))*(プロット!E7)</f>
-        <v>21.989588469128783</v>
-      </c>
-      <c r="E7" s="21">
-        <f>-SIN(RADIANS($A7))*(プロット!D7)+COS(RADIANS($A7))*(プロット!E7)</f>
-        <v>119.45472508969937</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>3.9429976078885343</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="1"/>
-        <v>5.4323310896610018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21">
-        <f>COS(RADIANS($A8))*(プロット!B8)+SIN(RADIANS($A8))*(プロット!C8)</f>
-        <v>23.489026294253037</v>
-      </c>
-      <c r="C8" s="21">
-        <f>-SIN(RADIANS($A8))*(プロット!B8)+COS(RADIANS($A8))*(プロット!C8)</f>
-        <v>105.29413795439389</v>
-      </c>
-      <c r="D8" s="21">
-        <f>COS(RADIANS($A8))*(プロット!D8)+SIN(RADIANS($A8))*(プロット!E8)</f>
-        <v>25.620195313855039</v>
-      </c>
-      <c r="E8" s="21">
-        <f>-SIN(RADIANS($A8))*(プロット!D8)+COS(RADIANS($A8))*(プロット!E8)</f>
-        <v>154.93516292793052</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>4.4826948820843961</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="1"/>
-        <v>6.0473841448095351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="21">
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21">
-        <f>COS(RADIANS($A9))*(プロット!B9)+SIN(RADIANS($A9))*(プロット!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="21">
-        <f>-SIN(RADIANS($A9))*(プロット!B9)+COS(RADIANS($A9))*(プロット!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <f>COS(RADIANS($A9))*(プロット!D9)+SIN(RADIANS($A9))*(プロット!E9)</f>
-        <v>31.38609814199263</v>
-      </c>
-      <c r="E9" s="21">
-        <f>-SIN(RADIANS($A9))*(プロット!D9)+COS(RADIANS($A9))*(プロット!E9)</f>
-        <v>194.0222974436239</v>
-      </c>
-      <c r="F9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="1"/>
-        <v>6.1817909497974277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="13"/>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="18">
-        <f>-COS(RADIANS($A$6))*(-プロット!N19)-SIN(RADIANS($A$6))*(-プロット!N20)</f>
-        <v>2.752401375293668</v>
-      </c>
-      <c r="D13" s="19">
-        <f>-COS(RADIANS($A$6))*(-プロット!O19)-SIN(RADIANS($A$6))*(-プロット!O20)</f>
-        <v>2.0441131456459671</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="23">
-        <f>SIN(RADIANS($A$6))*(-プロット!N19)-COS(RADIANS($A$6))*(-プロット!N20)</f>
-        <v>24.810638654515092</v>
-      </c>
-      <c r="D14" s="24">
-        <f>SIN(RADIANS($A$6))*(-プロット!O19)-COS(RADIANS($A$6))*(-プロット!O20)</f>
-        <v>26.603047561821828</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="51"/>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="25">
-        <f>-COS(RADIANS($A$6))*(-プロット!B13)-SIN(RADIANS($A$6))*(-プロット!D13)</f>
-        <v>7.6247619071428776</v>
-      </c>
-      <c r="C19" s="26">
-        <f>-COS(RADIANS($A$6))*(-プロット!C13)-SIN(RADIANS($A$6))*(-プロット!E13)</f>
-        <v>7.7080213820789778</v>
-      </c>
-      <c r="D19" s="25">
-        <f>SIN(RADIANS($A$6))*(-プロット!B13)-COS(RADIANS($A$6))*(-プロット!D13)</f>
-        <v>14.479515142368102</v>
-      </c>
-      <c r="E19" s="26">
-        <f>SIN(RADIANS($A$6))*(-プロット!C13)-COS(RADIANS($A$6))*(-プロット!E13)</f>
-        <v>12.744359708562619</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B14)-SIN(RADIANS($A$6))*(-プロット!D14)</f>
-        <v>2.077894137034741</v>
-      </c>
-      <c r="C20" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C14)-SIN(RADIANS($A$6))*(-プロット!E14)</f>
-        <v>2.8387292559583286</v>
-      </c>
-      <c r="D20" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B14)-COS(RADIANS($A$6))*(-プロット!D14)</f>
-        <v>22.521609917012558</v>
-      </c>
-      <c r="E20" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C14)-COS(RADIANS($A$6))*(-プロット!E14)</f>
-        <v>33.372932182669324</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B15)-SIN(RADIANS($A$6))*(-プロット!D15)</f>
-        <v>2.0802842453512076</v>
-      </c>
-      <c r="C21" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C15)-SIN(RADIANS($A$6))*(-プロット!E15)</f>
-        <v>2.8469211142800415</v>
-      </c>
-      <c r="D21" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B15)-COS(RADIANS($A$6))*(-プロット!D15)</f>
-        <v>22.447898283650371</v>
-      </c>
-      <c r="E21" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C15)-COS(RADIANS($A$6))*(-プロット!E15)</f>
-        <v>33.534403343150842</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B16)-SIN(RADIANS($A$6))*(-プロット!D16)</f>
-        <v>1.7077979711962763</v>
-      </c>
-      <c r="C22" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C16)-SIN(RADIANS($A$6))*(-プロット!E16)</f>
-        <v>1.6762831526113151</v>
-      </c>
-      <c r="D22" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B16)-COS(RADIANS($A$6))*(-プロット!D16)</f>
-        <v>0.33686625643180579</v>
-      </c>
-      <c r="E22" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C16)-COS(RADIANS($A$6))*(-プロット!E16)</f>
-        <v>0.58319419141620132</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B17)-SIN(RADIANS($A$6))*(-プロット!D17)</f>
-        <v>1.1254677428595294</v>
-      </c>
-      <c r="C23" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C17)-SIN(RADIANS($A$6))*(-プロット!E17)</f>
-        <v>1.128617894573178</v>
-      </c>
-      <c r="D23" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B17)-COS(RADIANS($A$6))*(-プロット!D17)</f>
-        <v>-0.32271868886092137</v>
-      </c>
-      <c r="E23" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C17)-COS(RADIANS($A$6))*(-プロット!E17)</f>
-        <v>-0.31012081220185017</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B18)-SIN(RADIANS($A$6))*(-プロット!D18)</f>
-        <v>0.54340125910689674</v>
-      </c>
-      <c r="C24" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C18)-SIN(RADIANS($A$6))*(-プロット!E18)</f>
-        <v>0.53662565784411331</v>
-      </c>
-      <c r="D24" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B18)-COS(RADIANS($A$6))*(-プロット!D18)</f>
-        <v>0.47790573994964386</v>
-      </c>
-      <c r="E24" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C18)-COS(RADIANS($A$6))*(-プロット!E18)</f>
-        <v>0.45717726542910908</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B19)-SIN(RADIANS($A$6))*(-プロット!D19)</f>
-        <v>2.80493803049673</v>
-      </c>
-      <c r="C25" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C19)-SIN(RADIANS($A$6))*(-プロット!E19)</f>
-        <v>2.7610811101802697</v>
-      </c>
-      <c r="D25" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B19)-COS(RADIANS($A$6))*(-プロット!D19)</f>
-        <v>0.34971370570730964</v>
-      </c>
-      <c r="E25" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C19)-COS(RADIANS($A$6))*(-プロット!E19)</f>
-        <v>0.33742263769894232</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="27">
-        <f>-COS(RADIANS($A$6))*(-プロット!B20)-SIN(RADIANS($A$6))*(-プロット!D20)</f>
-        <v>0.10596349389117153</v>
-      </c>
-      <c r="C26" s="28">
-        <f>-COS(RADIANS($A$6))*(-プロット!C20)-SIN(RADIANS($A$6))*(-プロット!E20)</f>
-        <v>0.10574428708365677</v>
-      </c>
-      <c r="D26" s="27">
-        <f>SIN(RADIANS($A$6))*(-プロット!B20)-COS(RADIANS($A$6))*(-プロット!D20)</f>
-        <v>-7.352349204491653E-3</v>
-      </c>
-      <c r="E26" s="28">
-        <f>SIN(RADIANS($A$6))*(-プロット!C20)-COS(RADIANS($A$6))*(-プロット!E20)</f>
-        <v>-5.3413308470313722E-3</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="20" t="s">
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="29">
-        <f>SUM(B19:B26)</f>
-        <v>18.070508787079429</v>
-      </c>
-      <c r="C27" s="30">
-        <f>-COS(RADIANS($A$6))*(-プロット!C21)-SIN(RADIANS($A$6))*(-プロット!E21)</f>
-        <v>19.602023854609882</v>
-      </c>
-      <c r="D27" s="29">
-        <f>SIN(RADIANS($A$6))*(-プロット!B21)-COS(RADIANS($A$6))*(-プロット!D21)</f>
-        <v>60.283438007054379</v>
-      </c>
-      <c r="E27" s="30">
-        <f>SIN(RADIANS($A$6))*(-プロット!C21)-COS(RADIANS($A$6))*(-プロット!E21)</f>
-        <v>80.714027185878152</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.7716271399999992</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-15.373682799999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-14.6777546</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2275943600000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.23084876</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.28906872400000011</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.28728904000000011</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.47410674800000002</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-0.26855860399999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-0.110237372</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.4856414600000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.7526021599999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.7402308000000011E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.6281683199999993E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <f>SUM(B8:O8)</f>
+        <v>-20.817770992799996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>38.61819779999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>111.893822</v>
+      </c>
+      <c r="D9" s="3">
+        <v>113.804046</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7.3674097800000019E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8.0479964200000018E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-4.8059019399999993E-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-4.7584796199999987E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.667464059999999E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.32017188</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.3415916000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.57130432600000003</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.48064826799999982</v>
+      </c>
+      <c r="N9" s="3">
+        <v>8.7409971599999967E-4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8.9356616599999992E-4</v>
+      </c>
+      <c r="P9" s="3">
+        <f>SUM(B9:O9)</f>
+        <v>268.06338514568193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11.8919292</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-6.7635475199999986</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-7.5432526000000006</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5.8802796200000007E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-5.685361659999999E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-2.9466308800000011E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2.929821560000001E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-5.6367402800000008E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8.9514418199999959E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>9.5819164199999987E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6.904387522E-7</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-3.9353515999999998E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-1.6213233399999999E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1.6057264000000001E-4</v>
+      </c>
+      <c r="P10" s="3">
+        <f>SUM(B10:O10)</f>
+        <v>-2.500001208135247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
+        <v>18917500</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="21"/>
-      <c r="B1" s="56">
-        <v>1</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1" s="21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="21">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21">
-        <f>COS(RADIANS($A4))*(プロット!$J4)+SIN(RADIANS($A4))*(プロット!$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <f>-SIN(RADIANS($A4))*(プロット!$J4)+COS(RADIANS($A4))*(プロット!$K4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <f>COS(RADIANS($A4))*(プロット!$L4)+SIN(RADIANS($A4))*(プロット!$M4)</f>
-        <v>11.090920124000004</v>
-      </c>
-      <c r="E4" s="21">
-        <f>-SIN(RADIANS($A4))*(プロット!$L4)+COS(RADIANS($A4))*(プロット!$M4)</f>
-        <v>3.5801622033399996</v>
-      </c>
-      <c r="F4" s="21" t="e">
-        <f t="shared" ref="F4:F9" si="0">C4/B4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="21">
-        <f t="shared" ref="G4:G9" si="1">E4/D4</f>
-        <v>0.3228011890188236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="21">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21">
-        <f>COS(RADIANS($A5))*(プロット!$J5)+SIN(RADIANS($A5))*(プロット!$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f>-SIN(RADIANS($A5))*(プロット!$J5)+COS(RADIANS($A5))*(プロット!$K5)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <f>COS(RADIANS($A5))*(プロット!$L5)+SIN(RADIANS($A5))*(プロット!$M5)</f>
-        <v>12.27080771709586</v>
-      </c>
-      <c r="E5" s="21">
-        <f>-SIN(RADIANS($A5))*(プロット!$L5)+COS(RADIANS($A5))*(プロット!$M5)</f>
-        <v>44.128060014985039</v>
-      </c>
-      <c r="F5" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" si="1"/>
-        <v>3.5961821774376932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21">
-        <f>COS(RADIANS($A6))*(プロット!$J6)+SIN(RADIANS($A6))*(プロット!$K6)</f>
-        <v>12.485060199019099</v>
-      </c>
-      <c r="C6" s="21">
-        <f>-SIN(RADIANS($A6))*(プロット!$J6)+COS(RADIANS($A6))*(プロット!$K6)</f>
-        <v>60.674010620091821</v>
-      </c>
-      <c r="D6" s="21">
-        <f>COS(RADIANS($A6))*(プロット!$L6)+SIN(RADIANS($A6))*(プロット!$M6)</f>
-        <v>13.757849832577078</v>
-      </c>
-      <c r="E6" s="21">
-        <f>-SIN(RADIANS($A6))*(プロット!$L6)+COS(RADIANS($A6))*(プロット!$M6)</f>
-        <v>77.523655893048371</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>4.8597291204778283</v>
-      </c>
-      <c r="G6" s="21">
-        <f t="shared" si="1"/>
-        <v>5.6348671366859131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <f>COS(RADIANS($A7))*(プロット!$J7)+SIN(RADIANS($A7))*(プロット!$K7)</f>
-        <v>14.801834418637091</v>
-      </c>
-      <c r="C7" s="21">
-        <f>-SIN(RADIANS($A7))*(プロット!$J7)+COS(RADIANS($A7))*(プロット!$K7)</f>
-        <v>81.831370207250217</v>
-      </c>
-      <c r="D7" s="21">
-        <f>COS(RADIANS($A7))*(プロット!$L7)+SIN(RADIANS($A7))*(プロット!$M7)</f>
-        <v>16.153664809485523</v>
-      </c>
-      <c r="E7" s="21">
-        <f>-SIN(RADIANS($A7))*(プロット!$L7)+COS(RADIANS($A7))*(プロット!$M7)</f>
-        <v>119.00718787590546</v>
-      </c>
-      <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>5.5284613982855921</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="1"/>
-        <v>7.3671943351222549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="21">
-        <v>8</v>
-      </c>
-      <c r="B8" s="21">
-        <f>COS(RADIANS($A8))*(プロット!$J8)+SIN(RADIANS($A8))*(プロット!$K8)</f>
-        <v>17.510279676212274</v>
-      </c>
-      <c r="C8" s="21">
-        <f>-SIN(RADIANS($A8))*(プロット!$J8)+COS(RADIANS($A8))*(プロット!$K8)</f>
-        <v>106.13439599456743</v>
-      </c>
-      <c r="D8" s="21">
-        <f>COS(RADIANS($A8))*(プロット!$L8)+SIN(RADIANS($A8))*(プロット!$M8)</f>
-        <v>19.445775844872021</v>
-      </c>
-      <c r="E8" s="21">
-        <f>-SIN(RADIANS($A8))*(プロット!$L8)+COS(RADIANS($A8))*(プロット!$M8)</f>
-        <v>154.77197833986358</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="0"/>
-        <v>6.0612621818228902</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="1"/>
-        <v>7.9591567636360452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="21">
-        <v>10</v>
-      </c>
-      <c r="B9" s="21">
-        <f>COS(RADIANS($A9))*(プロット!$J9)+SIN(RADIANS($A9))*(プロット!$K9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="21">
-        <f>-SIN(RADIANS($A9))*(プロット!$J9)+COS(RADIANS($A9))*(プロット!$K9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="21">
-        <f>COS(RADIANS($A9))*(プロット!$L9)+SIN(RADIANS($A9))*(プロット!$M9)</f>
-        <v>24.952437528634402</v>
-      </c>
-      <c r="E9" s="21">
-        <f>-SIN(RADIANS($A9))*(プロット!$L9)+COS(RADIANS($A9))*(プロット!$M9)</f>
-        <v>193.97986860628478</v>
-      </c>
-      <c r="F9" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="1"/>
-        <v>7.7739847413176122</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1152C915-9C8E-CB41-BC3D-41CB77EBCB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE5E22-10BA-C64E-8F4D-669E3D84B040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="500" windowWidth="20720" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="500" windowWidth="20720" windowHeight="15000" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
     <sheet name="alpha=2" sheetId="2" r:id="rId2"/>
     <sheet name="alpha=4" sheetId="3" r:id="rId3"/>
-    <sheet name="alpha=6" sheetId="5" r:id="rId4"/>
-    <sheet name="alpha=8" sheetId="6" r:id="rId5"/>
-    <sheet name="alpha=10" sheetId="7" r:id="rId6"/>
-    <sheet name="alpha=12" sheetId="8" r:id="rId7"/>
-    <sheet name="alpha=14" sheetId="9" r:id="rId8"/>
-    <sheet name="plot_1.0vs1.5" sheetId="10" r:id="rId9"/>
-    <sheet name="plot_1.0vs1.5vs1.5ori" sheetId="13" r:id="rId10"/>
+    <sheet name="alpha=6" sheetId="4" r:id="rId4"/>
+    <sheet name="alpha=8" sheetId="5" r:id="rId5"/>
+    <sheet name="alpha=10" sheetId="6" r:id="rId6"/>
+    <sheet name="alpha=12" sheetId="7" r:id="rId7"/>
+    <sheet name="alpha=14" sheetId="8" r:id="rId8"/>
+    <sheet name="plot_1.0vs1.5" sheetId="9" r:id="rId9"/>
+    <sheet name="plot_1.0vs1.5vs1.5ori" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="45">
   <si>
     <t>翼1.0</t>
   </si>
@@ -94,6 +94,9 @@
     <t>翼1.5</t>
   </si>
   <si>
+    <t>翼1.5hole_original</t>
+  </si>
+  <si>
     <t>左右バッテリーカバー</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>フレーム</t>
+  </si>
+  <si>
+    <t>700-950安定</t>
   </si>
   <si>
     <t>X</t>
@@ -121,10 +127,28 @@
     <t>Lift</t>
   </si>
   <si>
+    <t>L/D=CL/CD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>alpha4</t>
+  </si>
+  <si>
     <t>穴有り</t>
   </si>
   <si>
     <t>穴無し</t>
+  </si>
+  <si>
+    <t>穴有り1.5</t>
   </si>
   <si>
     <t>抗力[N]</t>
@@ -133,38 +157,17 @@
     <t>揚力[N]</t>
   </si>
   <si>
-    <t>CD</t>
+    <t>1.5_hole_original</t>
+  </si>
+  <si>
+    <t>反復回数</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>翼1.5hole_original</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpha4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>穴有り1.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L/D=CL/CD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.5_hole_original</t>
-  </si>
-  <si>
-    <t>1.5_hole_original</t>
+    <t>950-1000荒れてる可能性</t>
+    <rPh sb="0" eb="3">
+      <t>カノウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,25 +441,13 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,7 +589,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84C1-BC40-AA32-BBB401AC92DB}"/>
+              <c16:uniqueId val="{00000000-AB9D-104C-B192-CA72A69180BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -698,7 +692,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84C1-BC40-AA32-BBB401AC92DB}"/>
+              <c16:uniqueId val="{00000001-AB9D-104C-B192-CA72A69180BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1024,7 +1018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B5B-4A47-B240-B3605E773F7F}"/>
+              <c16:uniqueId val="{00000000-9021-CE44-B61D-441AB29047EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1072,7 +1066,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-4B5B-4A47-B240-B3605E773F7F}"/>
+                <c16:uniqueId val="{00000002-9021-CE44-B61D-441AB29047EC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1145,7 +1139,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4B5B-4A47-B240-B3605E773F7F}"/>
+              <c16:uniqueId val="{00000003-9021-CE44-B61D-441AB29047EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1520,7 +1514,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0973-C04E-95E0-19DA5191267B}"/>
+              <c16:uniqueId val="{00000000-853B-9D41-9DC1-158FE15D4DBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1623,7 +1617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0973-C04E-95E0-19DA5191267B}"/>
+              <c16:uniqueId val="{00000001-853B-9D41-9DC1-158FE15D4DBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1633,6 +1627,20 @@
           <c:tx>
             <c:v>1.5倍機(hole_original)</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>plot_1.0vs1.5vs1.5ori!$Q$4:$Q$11</c:f>
@@ -1646,10 +1654,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.2782928182191317E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.026646336460216E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1679,10 +1687,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22356373103165939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.3368930892841539</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1702,7 +1710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0973-C04E-95E0-19DA5191267B}"/>
+              <c16:uniqueId val="{00000002-853B-9D41-9DC1-158FE15D4DBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1868,8 +1876,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16751534261957676"/>
-          <c:y val="5.2584248953146104E-2"/>
+          <c:x val="0.16751534261957679"/>
+          <c:y val="5.2584248953146097E-2"/>
           <c:w val="0.39488520990952358"/>
           <c:h val="0.25403577430673191"/>
         </c:manualLayout>
@@ -2028,7 +2036,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3D03-C14C-8B2F-D0383183CAE8}"/>
+              <c16:uniqueId val="{00000000-6BDB-CB4A-ADA2-561037226246}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2076,7 +2084,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3D03-C14C-8B2F-D0383183CAE8}"/>
+                <c16:uniqueId val="{00000002-6BDB-CB4A-ADA2-561037226246}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2149,7 +2157,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3D03-C14C-8B2F-D0383183CAE8}"/>
+              <c16:uniqueId val="{00000003-6BDB-CB4A-ADA2-561037226246}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2159,6 +2167,20 @@
           <c:tx>
             <c:v>1.5倍機(hole_original)</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>plot_1.0vs1.5vs1.5ori!$A$4:$A$11</c:f>
@@ -2205,10 +2227,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.2355310463258578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.5900590556642804</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2228,7 +2250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3D03-C14C-8B2F-D0383183CAE8}"/>
+              <c16:uniqueId val="{00000004-6BDB-CB4A-ADA2-561037226246}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2439,7 +2461,7 @@
           <c:x val="0.5544969402287665"/>
           <c:y val="0.53777431814441667"/>
           <c:w val="0.35873130608532339"/>
-          <c:h val="0.25319068609502615"/>
+          <c:h val="0.25319068609502621"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2504,7 +2526,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2562,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,13 +2603,11 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A7A99E-BECC-C044-9DBB-8DD0E5965C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2619,13 +2639,11 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5F6CB1-E2C3-2D4B-A25F-8F246A8F05EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2996,7 +3014,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3418,348 +3436,348 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>6.4461706399999992</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>1.43954742</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>1.4434693199999999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>1.5136995937999997</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.1618745620000002</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.68901853699999993</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>2.5968253299999997</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>15.290605402799999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>6.0136276000000004</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>2.1307694000000001</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>2.1300560000000002</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>1.2356503839999999</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.1484725</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.70333913999999997</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>2.4399644199999999</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>15.801879444000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>5.7757043499999989</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>4.2303164899999999</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>4.2461857800000011</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>0.77598239054447582</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.2809830841</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>-0.16338612379999995</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.25109003850399991</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>14.834909841148473</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>3.642614</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>-6.6646780000000003E-2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>0.24389136</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.88974808334000011</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.26702415000000002</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>-0.24173356000000001</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.16068461600000009</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>4.3615335693399997</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3767,747 +3785,748 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E517C013-0237-AB42-A743-DD7C16245B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="15"/>
+    <col min="1" max="2" width="10.7109375" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>1.5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="15">
+      <c r="G1" s="16"/>
+      <c r="H1" s="11">
         <v>1</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="11">
         <v>1.5</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="16">
+      <c r="J1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="15">
         <v>1</v>
       </c>
       <c r="L1" s="16"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="16">
+      <c r="M1" s="10"/>
+      <c r="N1" s="15">
         <v>1.5</v>
       </c>
       <c r="O1" s="16"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="14"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>26</v>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="15">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <f>'alpha=0'!$J$20</f>
         <v>15.290605402799999</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <f>'alpha=0'!$J$23</f>
         <v>14.834909841148473</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <f>'alpha=0'!$J$21</f>
         <v>15.801879444000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <f>'alpha=0'!$J$24</f>
         <v>4.3615335693399997</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <f>'alpha=0'!$J$22</f>
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <f>'alpha=0'!$J$25</f>
         <v>0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H11" si="0">C4/B4</f>
         <v>0.97019767696260872</v>
       </c>
-      <c r="I4" s="15">
-        <f t="shared" ref="I4:J11" si="1">E4/D4</f>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I11" si="1">E4/D4</f>
         <v>0.27601359602803965</v>
       </c>
-      <c r="J4" s="15" t="e">
-        <f>G4/F4</f>
+      <c r="J4" s="11" t="e">
+        <f t="shared" ref="J4:J11" si="2">G4/F4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="15">
-        <f>2*B4/(1.225*28*28*M4)</f>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K11" si="3">2*B4/(1.225*28*28*M4)</f>
         <v>5.9230208994950011E-2</v>
       </c>
-      <c r="L4" s="15">
-        <f>2*C4/(1.225*28*28*M4)</f>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L11" si="4">2*C4/(1.225*28*28*M4)</f>
         <v>5.7465011172910314E-2</v>
       </c>
-      <c r="M4" s="15">
-        <f>0.5376</f>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M11" si="5">0.5376</f>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N4" s="15">
-        <f>2*D4/(1.225*28*28*P4)</f>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N11" si="6">2*D4/(1.225*28*28*P4)</f>
         <v>4.4093355190618855E-2</v>
       </c>
-      <c r="O4" s="15">
-        <f>2*E4/(1.225*28*28*P4)</f>
+      <c r="O4" s="11">
+        <f t="shared" ref="O4:O11" si="7">2*E4/(1.225*28*28*P4)</f>
         <v>1.2170365527104337E-2</v>
       </c>
-      <c r="P4" s="15">
-        <f>0.7463</f>
+      <c r="P4" s="11">
+        <f t="shared" ref="P4:P11" si="8">0.7463</f>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q4" s="15">
-        <f>2*F4/(1.225*28*28*S4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="15">
-        <f>2*G4/(1.225*28*28*S4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="15">
-        <f>0.7463</f>
+      <c r="Q4" s="11">
+        <f t="shared" ref="Q4:Q11" si="9">2*F4/(1.225*28*28*S4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R11" si="10">2*G4/(1.225*28*28*S4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" ref="S4:S11" si="11">0.7463</f>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <f>'alpha=2'!$J$20</f>
         <v>16.055294288890284</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <f>'alpha=2'!$J$23</f>
         <v>36.771748382178224</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f>'alpha=2'!$J$21</f>
         <v>17.406416814637499</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <f>'alpha=2'!$J$24</f>
         <v>44.787241017938577</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>'alpha=2'!$J$22</f>
         <v>0</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <f>'alpha=2'!$J$25</f>
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>2.2903191757514541</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <f t="shared" si="1"/>
         <v>2.5730304803614632</v>
       </c>
-      <c r="J5" s="15" t="e">
-        <f t="shared" ref="J5:J11" si="2">G5/F5</f>
+      <c r="J5" s="11" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="15">
-        <f t="shared" ref="K5:K11" si="3">2*B5/(1.225*28*28*M5)</f>
+      <c r="K5" s="11">
+        <f t="shared" si="3"/>
         <v>6.2192333864835747E-2</v>
       </c>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:L11" si="4">2*C5/(1.225*28*28*M5)</f>
+      <c r="L5" s="11">
+        <f t="shared" si="4"/>
         <v>0.14244029483536985</v>
       </c>
-      <c r="M5" s="15">
-        <f t="shared" ref="M5:M11" si="5">0.5376</f>
+      <c r="M5" s="11">
+        <f t="shared" si="5"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N5" s="15">
-        <f t="shared" ref="N5:N11" si="6">2*D5/(1.225*28*28*P5)</f>
+      <c r="N5" s="11">
+        <f t="shared" si="6"/>
         <v>4.8570635026278182E-2</v>
       </c>
-      <c r="O5" s="15">
-        <f t="shared" ref="O5:O11" si="7">2*E5/(1.225*28*28*P5)</f>
+      <c r="O5" s="11">
+        <f t="shared" si="7"/>
         <v>0.12497372437312587</v>
       </c>
-      <c r="P5" s="15">
-        <f t="shared" ref="P5:P11" si="8">0.7463</f>
+      <c r="P5" s="11">
+        <f t="shared" si="8"/>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q11" si="9">2*F5/(1.225*28*28*S5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" ref="R5:R11" si="10">2*G5/(1.225*28*28*S5)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
-        <f t="shared" ref="S5:S11" si="11">0.7463</f>
+      <c r="Q5" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="11"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="15">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f>'alpha=4'!$J$20</f>
         <v>18.070508787079429</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <f>'alpha=4'!$J$23</f>
         <v>60.283438007054372</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <f>'alpha=4'!$J$21</f>
         <v>19.309324430292762</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <f>'alpha=4'!$J$24</f>
         <v>78.06731686924536</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <f>'alpha=4'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
+        <v>18.915990044997777</v>
+      </c>
+      <c r="G6" s="11">
         <f>'alpha=4'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+        <v>80.119263107578945</v>
+      </c>
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>3.3360122129022485</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <f t="shared" si="1"/>
         <v>4.042985405888782</v>
       </c>
-      <c r="J6" s="15" t="e">
+      <c r="J6" s="11">
+        <f t="shared" si="2"/>
+        <v>4.2355310463258578</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="3"/>
+        <v>6.9998537265751393E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23351597520383979</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="5"/>
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="6"/>
+        <v>5.3880483243344553E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="7"/>
+        <v>0.21783800741507711</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="8"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="9"/>
+        <v>5.2782928182191317E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="10"/>
+        <v>0.22356373103165939</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" si="11"/>
+        <v>0.74629999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <f>'alpha=6'!$J$20</f>
+        <v>20.803621994228205</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'alpha=6'!$J$23</f>
+        <v>82.802535585092684</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'alpha=6'!$J$21</f>
+        <v>21.989588469128783</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'alpha=6'!$J$24</f>
+        <v>119.45472508969934</v>
+      </c>
+      <c r="F7" s="11">
+        <f>'alpha=6'!$J$22</f>
+        <v>21.597888944643046</v>
+      </c>
+      <c r="G7" s="11">
+        <f>'alpha=6'!$J$25</f>
+        <v>120.73347467823331</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9801980447474756</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>5.4323310896610009</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="2"/>
+        <v>5.5900590556642804</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>8.0585617515473634E-2</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.3207467172698561</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="5"/>
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="6"/>
+        <v>6.1359456531798112E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="7"/>
+        <v>0.33332488336238963</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="8"/>
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="9"/>
+        <v>6.026646336460216E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="10"/>
+        <v>0.3368930892841539</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="11"/>
+        <v>0.74629999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11">
+        <f>'alpha=8'!$J$20</f>
+        <v>23.489026294253037</v>
+      </c>
+      <c r="C8" s="11">
+        <f>'alpha=8'!$J$23</f>
+        <v>105.2941379543939</v>
+      </c>
+      <c r="D8" s="11">
+        <f>'alpha=8'!$J$21</f>
+        <v>25.620195313855035</v>
+      </c>
+      <c r="E8" s="11">
+        <f>'alpha=8'!$J$24</f>
+        <v>154.93516292793052</v>
+      </c>
+      <c r="F8" s="11">
+        <f>'alpha=8'!$J$22</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>'alpha=8'!$J$25</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4826948820843961</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>6.047384144809536</v>
+      </c>
+      <c r="J8" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
-        <v>6.9998537265751393E-2</v>
-      </c>
-      <c r="L6" s="15">
+        <v>9.0987890920376346E-2</v>
+      </c>
+      <c r="L8" s="11">
         <f t="shared" si="4"/>
-        <v>0.23351597520383979</v>
-      </c>
-      <c r="M6" s="15">
+        <v>0.40787095296042436</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="5"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N8" s="11">
         <f t="shared" si="6"/>
-        <v>5.3880483243344553E-2</v>
-      </c>
-      <c r="O6" s="15">
+        <v>7.1490253803687898E-2</v>
+      </c>
+      <c r="O8" s="11">
         <f t="shared" si="7"/>
-        <v>0.21783800741507711</v>
-      </c>
-      <c r="P6" s="15">
+        <v>0.43232902736083184</v>
+      </c>
+      <c r="P8" s="11">
         <f t="shared" si="8"/>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q8" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R8" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S8" s="11">
         <f t="shared" si="11"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15">
-        <f>'alpha=6'!$J$20</f>
-        <v>20.803621994228205</v>
-      </c>
-      <c r="C7" s="15">
-        <f>'alpha=6'!$J$23</f>
-        <v>82.802535585092684</v>
-      </c>
-      <c r="D7" s="15">
-        <f>'alpha=6'!$J$21</f>
-        <v>21.989588469128783</v>
-      </c>
-      <c r="E7" s="15">
-        <f>'alpha=6'!$J$24</f>
-        <v>119.45472508969934</v>
-      </c>
-      <c r="F7" s="15">
-        <f>'alpha=6'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <f>'alpha=6'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
+    <row r="9" spans="1:19">
+      <c r="A9" s="11">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <f>'alpha=10'!$J$20</f>
+        <v>26.53653097574816</v>
+      </c>
+      <c r="C9" s="11">
+        <f>'alpha=10'!$J$23</f>
+        <v>124.61014205786402</v>
+      </c>
+      <c r="D9" s="11">
+        <f>'alpha=10'!$J$21</f>
+        <v>31.092044165992004</v>
+      </c>
+      <c r="E9" s="11">
+        <f>'alpha=10'!$J$24</f>
+        <v>194.18111735835637</v>
+      </c>
+      <c r="F9" s="11">
+        <f>'alpha=10'!$J$22</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>'alpha=10'!$J$25</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>3.9801980447474756</v>
-      </c>
-      <c r="I7" s="15">
+        <v>4.6957962279148591</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="1"/>
-        <v>5.4323310896610009</v>
-      </c>
-      <c r="J7" s="15" t="e">
+        <v>6.2453634866101426</v>
+      </c>
+      <c r="J9" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
-        <v>8.0585617515473634E-2</v>
-      </c>
-      <c r="L7" s="15">
+        <v>0.10279280867497297</v>
+      </c>
+      <c r="L9" s="11">
         <f t="shared" si="4"/>
-        <v>0.3207467172698561</v>
-      </c>
-      <c r="M7" s="15">
+        <v>0.48269408323271185</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="5"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N9" s="11">
         <f t="shared" si="6"/>
-        <v>6.1359456531798112E-2</v>
-      </c>
-      <c r="O7" s="15">
+        <v>8.6758828395823953E-2</v>
+      </c>
+      <c r="O9" s="11">
         <f t="shared" si="7"/>
-        <v>0.33332488336238963</v>
-      </c>
-      <c r="P7" s="15">
+        <v>0.5418404190043542</v>
+      </c>
+      <c r="P9" s="11">
         <f t="shared" si="8"/>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q9" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R9" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S9" s="11">
         <f t="shared" si="11"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="15">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15">
-        <f>'alpha=8'!$J$20</f>
-        <v>23.489026294253037</v>
-      </c>
-      <c r="C8" s="15">
-        <f>'alpha=8'!$J$23</f>
-        <v>105.2941379543939</v>
-      </c>
-      <c r="D8" s="15">
-        <f>'alpha=8'!$J$21</f>
-        <v>25.620195313855035</v>
-      </c>
-      <c r="E8" s="15">
-        <f>'alpha=8'!$J$24</f>
-        <v>154.93516292793052</v>
-      </c>
-      <c r="F8" s="15">
-        <f>'alpha=8'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f>'alpha=8'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
+    <row r="10" spans="1:19">
+      <c r="A10" s="11">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11">
+        <f>'alpha=12'!$J$20</f>
+        <v>31.029939833651113</v>
+      </c>
+      <c r="C10" s="11">
+        <f>'alpha=12'!$J$23</f>
+        <v>147.63400524939749</v>
+      </c>
+      <c r="D10" s="11">
+        <f>'alpha=12'!$J$21</f>
+        <v>37.992395115765625</v>
+      </c>
+      <c r="E10" s="11">
+        <f>'alpha=12'!$J$24</f>
+        <v>236.0857258009668</v>
+      </c>
+      <c r="F10" s="11">
+        <f>'alpha=12'!$J$22</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f>'alpha=12'!$J$25</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
-        <v>4.4826948820843961</v>
-      </c>
-      <c r="I8" s="15">
+        <v>4.7577921852524021</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="1"/>
-        <v>6.047384144809536</v>
-      </c>
-      <c r="J8" s="15" t="e">
+        <v>6.2140258617967152</v>
+      </c>
+      <c r="J10" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
-        <v>9.0987890920376346E-2</v>
-      </c>
-      <c r="L8" s="15">
+        <v>0.12019863001051115</v>
+      </c>
+      <c r="L10" s="11">
         <f t="shared" si="4"/>
-        <v>0.40787095296042436</v>
-      </c>
-      <c r="M8" s="15">
+        <v>0.57188010254205479</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="5"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N10" s="11">
         <f t="shared" si="6"/>
-        <v>7.1490253803687898E-2</v>
-      </c>
-      <c r="O8" s="15">
+        <v>0.10601347632846721</v>
+      </c>
+      <c r="O10" s="11">
         <f t="shared" si="7"/>
-        <v>0.43232902736083184</v>
-      </c>
-      <c r="P8" s="15">
+        <v>0.65877048360406909</v>
+      </c>
+      <c r="P10" s="11">
         <f t="shared" si="8"/>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q10" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R10" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S10" s="11">
         <f t="shared" si="11"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="15">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15">
-        <f>'alpha=10'!$J$20</f>
-        <v>26.53653097574816</v>
-      </c>
-      <c r="C9" s="15">
-        <f>'alpha=10'!$J$23</f>
-        <v>124.61014205786402</v>
-      </c>
-      <c r="D9" s="15">
-        <f>'alpha=10'!$J$21</f>
-        <v>31.092044165992004</v>
-      </c>
-      <c r="E9" s="15">
-        <f>'alpha=10'!$J$24</f>
-        <v>194.18111735835637</v>
-      </c>
-      <c r="F9" s="15">
-        <f>'alpha=10'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <f>'alpha=10'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
+    <row r="11" spans="1:19">
+      <c r="A11" s="11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11">
+        <f>'alpha=14'!$J$20</f>
+        <v>36.552244526523658</v>
+      </c>
+      <c r="C11" s="11">
+        <f>'alpha=14'!$J$23</f>
+        <v>169.92105624497077</v>
+      </c>
+      <c r="D11" s="11">
+        <f>'alpha=14'!$J$21</f>
+        <v>44.651008050400954</v>
+      </c>
+      <c r="E11" s="11">
+        <f>'alpha=14'!$J$24</f>
+        <v>265.13703159866958</v>
+      </c>
+      <c r="F11" s="11">
+        <f>'alpha=14'!$J$22</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f>'alpha=14'!$J$25</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
-        <v>4.6957962279148591</v>
-      </c>
-      <c r="I9" s="15">
+        <v>4.648717430243436</v>
+      </c>
+      <c r="I11" s="11">
         <f t="shared" si="1"/>
-        <v>6.2453634866101426</v>
-      </c>
-      <c r="J9" s="15" t="e">
+        <v>5.9379853484917842</v>
+      </c>
+      <c r="J11" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K11" s="11">
         <f t="shared" si="3"/>
-        <v>0.10279280867497297</v>
-      </c>
-      <c r="L9" s="15">
+        <v>0.14159001723660083</v>
+      </c>
+      <c r="L11" s="11">
         <f t="shared" si="4"/>
-        <v>0.48269408323271185</v>
-      </c>
-      <c r="M9" s="15">
+        <v>0.65821198107625489</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="5"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N11" s="11">
         <f t="shared" si="6"/>
-        <v>8.6758828395823953E-2</v>
-      </c>
-      <c r="O9" s="15">
+        <v>0.12459358170417333</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="7"/>
-        <v>0.5418404190043542</v>
-      </c>
-      <c r="P9" s="15">
+        <v>0.73983486267549525</v>
+      </c>
+      <c r="P11" s="11">
         <f t="shared" si="8"/>
         <v>0.74629999999999996</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q11" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R11" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S9" s="15">
-        <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="15">
-        <v>12</v>
-      </c>
-      <c r="B10" s="15">
-        <f>'alpha=12'!$J$20</f>
-        <v>31.029939833651113</v>
-      </c>
-      <c r="C10" s="15">
-        <f>'alpha=12'!$J$23</f>
-        <v>147.63400524939749</v>
-      </c>
-      <c r="D10" s="15">
-        <f>'alpha=12'!$J$21</f>
-        <v>37.992395115765625</v>
-      </c>
-      <c r="E10" s="15">
-        <f>'alpha=12'!$J$24</f>
-        <v>236.0857258009668</v>
-      </c>
-      <c r="F10" s="15">
-        <f>'alpha=12'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <f>'alpha=12'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>4.7577921852524021</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="1"/>
-        <v>6.2140258617967152</v>
-      </c>
-      <c r="J10" s="15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="3"/>
-        <v>0.12019863001051115</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="4"/>
-        <v>0.57188010254205479</v>
-      </c>
-      <c r="M10" s="15">
-        <f t="shared" si="5"/>
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10601347632846721</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="7"/>
-        <v>0.65877048360406909</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="8"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="15">
-        <f t="shared" si="11"/>
-        <v>0.74629999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="15">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15">
-        <f>'alpha=14'!$J$20</f>
-        <v>36.552244526523658</v>
-      </c>
-      <c r="C11" s="15">
-        <f>'alpha=14'!$J$23</f>
-        <v>169.92105624497077</v>
-      </c>
-      <c r="D11" s="15">
-        <f>'alpha=14'!$J$21</f>
-        <v>44.651008050400954</v>
-      </c>
-      <c r="E11" s="15">
-        <f>'alpha=14'!$J$24</f>
-        <v>265.13703159866958</v>
-      </c>
-      <c r="F11" s="15">
-        <f>'alpha=14'!$J$22</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <f>'alpha=14'!$J$25</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>4.648717430243436</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="1"/>
-        <v>5.9379853484917842</v>
-      </c>
-      <c r="J11" s="15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="3"/>
-        <v>0.14159001723660083</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="4"/>
-        <v>0.65821198107625489</v>
-      </c>
-      <c r="M11" s="15">
-        <f t="shared" si="5"/>
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="6"/>
-        <v>0.12459358170417333</v>
-      </c>
-      <c r="O11" s="15">
-        <f t="shared" si="7"/>
-        <v>0.73983486267549525</v>
-      </c>
-      <c r="P11" s="15">
-        <f t="shared" si="8"/>
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="15">
+      <c r="S11" s="11">
         <f t="shared" si="11"/>
         <v>0.74629999999999996</v>
       </c>
@@ -4522,12 +4541,12 @@
     <row r="27" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4539,7 +4558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4594,7 +4613,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>2</v>
       </c>
     </row>
@@ -5016,348 +5035,348 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>6.6899279174971751</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>1.6345394198107814</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>1.6216740401290783</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>1.6905373189401496</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.1267108442023457</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.61577555028552799</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>2.6761291980252251</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>16.055294288890284</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>7.1005154162415103</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>2.222507615428305</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>2.2376617155593297</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>1.5276839890347129</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.1593626119161005</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.60525019431451688</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>2.5534352721430222</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>17.406416814637499</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>9.339337955045087</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>13.406179078980285</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>13.29248281356314</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>0.59748063016470332</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.30228623900121049</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>0.15999217712478997</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.27856196630143049</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>36.771748382178224</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>10.242149826585552</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>16.678717426816629</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>17.07773202526144</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.65673186695526731</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.29090707378087011</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>0.13121364724796181</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.2916032988525985</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>44.787241017938577</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5375,766 +5394,892 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>6.5961484525000058</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>0.50180440049999997</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>0.50933055024999974</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>0.84365433550000024</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>0.83648492350000025</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>0.3013480702500001</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>0.30325609499999989</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>0.54063371250000036</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>0.25176270399999989</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>0.25697783774999999</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="11">
         <v>1.3007371249999999</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>1.4729734225</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>5.3217572000000053E-2</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="11">
         <v>5.3000674099999978E-2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="11">
         <f>SUM(B2:O2)</f>
         <v>13.821329875350006</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>14.976120275</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>22.61169497500001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>22.538329624999982</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>0.2110758675000001</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>0.24409976400000019</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <v>-8.416998124999997E-2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>-8.4078916524999978E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>-7.5175003525000048E-2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>0.26396995849999988</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>0.25067738275000001</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="11">
         <v>0.44545501699999968</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <v>9.906938977500003E-2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="11">
         <v>4.882596770999997E-5</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="11">
         <v>8.3744603880000008E-6</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="11">
         <f>SUM(B3:O3)</f>
         <v>61.397125553653083</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>4.6123092149999998</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>-1.3657179325</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>-1.3655065074999999</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>-7.2446200750000092E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>-7.1194490775000008E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>-2.8995197125E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>-2.9333532024999991E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>-7.6520417625000045E-2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>7.9209426999999999E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>7.9535272549999952E-2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>1.0338788285000001E-5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>1.8404354849999999E-2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>-1.8180618149999999E-4</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="11">
         <v>-1.8044491824999981E-4</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <f>SUM(B4:O4)</f>
         <v>1.7793920787885349</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>17117186</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>6.72187044</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>0.48912414999999998</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>0.49507729599999978</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>0.82234612799999995</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0.8141309520000003</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>0.30149972000000003</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>0.30705825199999998</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>0.52004083999999984</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="11">
         <v>0.25228231800000001</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <v>0.25305645399999999</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="11">
         <v>1.26593578</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="11">
         <v>1.46901594</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <v>5.2332346799999999E-2</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="11">
         <v>5.2816530200000003E-2</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="11">
         <f>SUM(B8:O8)</f>
         <v>13.816587147</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>11.519717999999999</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>33.093512200000013</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>33.163551200000001</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>0.30771497000000009</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>0.31377027800000001</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>-8.1174593200000006E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>-8.1372095800000016E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>-6.7435916200000015E-2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>0.25195894800000013</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
         <v>0.26366839199999997</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="11">
         <v>0.44130239799999998</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="11">
         <v>9.6782896599999987E-2</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="11">
         <v>1.0230564199999999E-3</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="11">
         <v>1.07945782E-3</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <f>SUM(B9:O9)</f>
         <v>79.224099191640008</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>3.1176056399999998</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>-1.7883285200000001</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>-1.8142688</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>-6.9707623200000013E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>-6.7105550800000011E-2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>-2.8622329799999981E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>-2.9397809399999999E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>-7.6062309800000019E-2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="11">
         <v>7.6598194999999994E-2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>7.3988625999999988E-2</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>7.348695860000002E-6</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>2.3793468200000001E-2</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>-1.8187709000000001E-4</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="11">
         <v>-1.85751258E-4</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <f>SUM(B10:O10)</f>
         <v>-0.58186729345214039</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="11">
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="B14" s="11">
+        <v>6.7375440100000006</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.20204944200000011</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.21120740700000001</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.82232345699999965</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.82460259399999958</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.30528965699999999</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.31146729899999992</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.52624373099999988</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.25249817299999999</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.247246521</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.26919925</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.46793258</v>
+      </c>
+      <c r="N14" s="11">
+        <v>5.1203043600000032E-2</v>
+      </c>
+      <c r="O14" s="11">
+        <v>5.2267206000000017E-2</v>
+      </c>
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+        <v>13.281074370599995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="B15" s="11">
+        <v>12.2650042</v>
+      </c>
+      <c r="C15" s="11">
+        <v>33.736179300000003</v>
+      </c>
+      <c r="D15" s="11">
+        <v>33.783369699999987</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.30724437199999999</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.31168186599999997</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-8.224288209999997E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-8.1152376500000012E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-6.8050437100000027E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.25404278299999999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.26394900799999998</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.47718912200000008</v>
+      </c>
+      <c r="M15" s="11">
+        <v>7.4461829164999965E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>9.2383143200000029E-4</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1.0090564500000001E-3</v>
+      </c>
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+        <v>81.243609372346995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="B16" s="11">
+        <v>3.486403699999999</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-1.7460870500000021</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-1.77337312</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-7.0801765300000014E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-6.8519226200000005E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-2.9150518100000002E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-2.9849993299999999E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-7.6647374899999995E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>7.7008013099999981E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7.4078769700000033E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1.1656231239999999E-5</v>
+      </c>
+      <c r="M16" s="11">
+        <v>2.7904989299999992E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>-1.76098805E-4</v>
+      </c>
+      <c r="O16">
+        <v>-1.809339690000001E-4</v>
+      </c>
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+        <v>-0.12937895224276311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
     <row r="19" spans="1:10">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>7.6247619071428776</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>2.077894137034741</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>2.0802842453512076</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>1.8137614650874474</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.1254677428595297</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.54340125910689674</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>2.80493803049673</v>
       </c>
-      <c r="J20" s="10">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>18.070508787079429</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>7.5090712076549142</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E22" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>2.7964193830340851</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>2.8072437011341966</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>1.7808827270664151</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.1098068264559064</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.54007613715410907</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>2.7658244477931371</v>
       </c>
-      <c r="J21" s="10">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>19.309324430292762</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
+        <v>7.5766951348683049</v>
+      </c>
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+        <v>2.5548741652818112</v>
+      </c>
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
+        <v>2.5673016578379224</v>
+      </c>
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+        <v>1.7894413664997364</v>
+      </c>
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
+        <v>1.1240715591781936</v>
+      </c>
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
+        <v>0.53466062181106044</v>
+      </c>
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
+        <v>2.7689455395207481</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>18.915990044997777</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>14.479515142368102</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>22.521609917012558</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>22.447898283650371</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>0.32951390722731416</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.32271868886092137</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>0.47790573994964386</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.34971370570730964</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>60.283438007054372</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>11.022762567071728</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>32.978778491627828</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>33.048231609671319</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.50057904845103707</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.30814945252954717</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>0.4791206469341931</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.3459939580187964</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>78.06731686924536</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
+        <v>11.765139954372302</v>
+      </c>
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+        <v>33.639905406203752</v>
+      </c>
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
+        <v>33.686342025416046</v>
+      </c>
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+        <v>0.49724527067100421</v>
+      </c>
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
+        <v>-0.31061360302992747</v>
+      </c>
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
+        <v>0.48186956140552351</v>
+      </c>
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.35937449254023729</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>80.119263107578945</v>
       </c>
     </row>
   </sheetData>
@@ -6144,11 +6289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I12" sqref="A12:XFD29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6202,7 +6347,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>6</v>
       </c>
     </row>
@@ -6624,348 +6769,483 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+      <c r="R13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="B14" s="11">
+        <v>6.1865799199999989</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-1.811062270000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-1.79646895</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.91699765800000022</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.91149331099999953</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.30209717000000008</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.30305677199999997</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.53605404300000004</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.18448568700000009</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.17660124399999999</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.37006093</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.47700878</v>
+      </c>
+      <c r="N14" s="11">
+        <v>5.2101965899999998E-2</v>
+      </c>
+      <c r="O14" s="11">
+        <v>5.0482615199999997E-2</v>
+      </c>
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+        <v>8.8594888760999968</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="B15" s="11">
+        <v>19.2809113</v>
+      </c>
+      <c r="C15" s="11">
+        <v>50.543946500000018</v>
+      </c>
+      <c r="D15" s="11">
+        <v>50.633519999999997</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.294597891</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.21402106000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-7.5156025599999982E-2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>-7.416123730000003E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-6.0025455699999987E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.41857934600000007</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.44794527200000012</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.54064065599999989</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.16297498099999991</v>
+      </c>
+      <c r="N15" s="11">
+        <v>9.5084954399999992E-4</v>
+      </c>
+      <c r="O15" s="11">
+        <v>9.330756590000003E-4</v>
+      </c>
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+        <v>122.32967821260301</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="B16" s="11">
+        <v>6.1009761399999993</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-2.714365850000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-2.7254983899999998</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-7.4452842599999999E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-6.3981443799999982E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-2.9149280100000001E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-2.9278944500000001E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-7.37596155E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>8.5775714599999955E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <v>7.9650469999999987E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <v>9.3676399900000012E-6</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.174240778E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>-1.79902091E-4</v>
+      </c>
+      <c r="O16" s="11">
+        <v>-1.7273441999999999E-4</v>
+      </c>
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+        <v>0.56731509700898863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>8.4854684914872767</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>2.9155935560870931</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>2.9187035239065655</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>1.9561494059250943</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.0892279150562176</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.45645351753727026</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>2.9820255842286874</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>20.803621994228205</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>7.8054119421449588</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>3.8934269489019284</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>3.926874240275958</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>1.9810043904901624</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.104719142111056</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.42500722698665983</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>2.8531445782180587</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>21.989588469128783</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
+        <v>8.1680932164746345</v>
+      </c>
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+        <v>3.4821399737371257</v>
+      </c>
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
+        <v>3.5060163303077454</v>
+      </c>
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+        <v>1.9738589973279994</v>
+      </c>
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
+        <v>1.1130740555800773</v>
+      </c>
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
+        <v>0.44968534571396346</v>
+      </c>
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+        <v>2.9050210255015014</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>21.597888944643046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>18.483787590892248</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>31.736858266334401</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>31.720056494312292</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>0.30903263038922058</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.33781241325476241</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>0.69935304340500348</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.19125997301428216</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>82.802535585092684</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>17.982196237011184</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>49.991465342023346</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>50.255596687200963</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.43401246650859659</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.32544535597919272</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>0.7867954273602813</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.3301042855741857</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>119.45472508969934</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
+        <v>18.528614758583437</v>
+      </c>
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+        <v>50.45636902853775</v>
+      </c>
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="15">
+        <v>50.543926418218923</v>
+      </c>
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+        <v>0.30585392832667108</v>
+      </c>
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
+        <v>-0.3274846342244444</v>
+      </c>
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
+        <v>0.82403384347316588</v>
+      </c>
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+        <v>0.40216133531781095</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>120.73347467823331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6973,7 +7253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -7031,7 +7311,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>8</v>
       </c>
     </row>
@@ -7453,348 +7733,348 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>9.0650837371039525</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>3.9103433306446576</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>3.9339847554320908</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>2.0260529730074857</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.0708969384537514</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.37923011907494242</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>3.1034344405361591</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>23.489026294253037</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>8.3645613968517427</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>5.3394190089935165</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>5.3528248874044015</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>2.156570535096801</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.089926575120634</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.28744559724159974</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>3.029447313146342</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>25.620195313855035</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>22.815831388521598</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>40.723339129881381</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>40.819881119489033</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>0.18535423562661857</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.35318992389375292</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>0.93667076989528697</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.16625123487373722</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>105.2941379543939</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>21.519689794007295</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>66.062221699552452</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>66.079744290533824</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.25349566440577775</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.34419942542575677</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>1.1225626271957199</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.24164827766120178</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>154.93516292793052</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7802,7 +8082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -7860,7 +8140,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>10</v>
       </c>
     </row>
@@ -8282,348 +8562,348 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>9.6850993997635104</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>5.0265099372685142</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>5.0522457608371543</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>2.1667738704351027</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.041235882008497</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.32452947127682902</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>3.240136654158551</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>26.53653097574816</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>9.4258574718994836</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>7.4885603134962668</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>7.5036281632021185</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>2.3085321998102546</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.0420755779253392</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.17566304059516569</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>3.147727399063379</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>31.092044165992004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>26.47744888172581</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>48.689126545467182</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>48.602008548476363</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>-0.10530210979993315</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.36805957622035607</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>1.2108470501640989</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.10407271805086205</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>124.61014205786402</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>25.444919529127418</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>83.569809027683675</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>83.639767753279102</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>0.12776190599604226</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.35028926563870388</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>1.5292417697878833</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.21990663812096667</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>194.18111735835637</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8631,7 +8911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8689,7 +8969,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="11">
         <v>12</v>
       </c>
     </row>
@@ -9111,348 +9391,348 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="12" spans="1:18" s="11" customFormat="1"/>
+    <row r="13" spans="1:18" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18" s="11" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18" s="11" customFormat="1">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18" s="11" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10" s="11" customFormat="1">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1"/>
+    <row r="19" spans="1:10" s="11" customFormat="1">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10" s="11" customFormat="1">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>10.817913523037518</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>6.6965361287794671</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>6.7588153693372126</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>2.1500853549354959</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>1.0083046357478818</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.25567397841257478</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>3.3426108434009629</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>31.029939833651113</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10" s="11" customFormat="1">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>11.323689065500769</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>9.9359483819877035</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>9.9697625588911336</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>2.3764144264076958</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>1.0098062666463528</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.14440518907518113</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>3.2323692272567883</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>37.992395115765625</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10" s="11" customFormat="1">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>30.838279811426901</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>57.856773567084986</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>57.84779845719298</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>-0.34339801343606402</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.37590002960891544</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>1.6599118861326096</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>0.15053957060495016</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>147.63400524939749</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10" s="11" customFormat="1">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>31.98193742603738</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>100.81595262110099</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>101.49309013777999</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>-0.2167138965725765</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.35835205457116243</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>2.1772196827747314</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.19259188441746633</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>236.0857258009668</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10" s="11" customFormat="1">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1"/>
+    <row r="27" spans="1:10" s="11" customFormat="1"/>
+    <row r="28" spans="1:10" s="11" customFormat="1"/>
+    <row r="29" spans="1:10" s="11" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9460,8 +9740,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:R29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -9469,8 +9749,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="12" width="10.7109375" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="10"/>
+    <col min="1" max="14" width="10.7109375" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -9522,7 +9802,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="11">
         <v>14</v>
       </c>
     </row>
@@ -9944,348 +10224,342 @@
         <v>18917500</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="15" customFormat="1"/>
-    <row r="13" spans="1:18" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="15" customFormat="1">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="11">
         <f>SUM(B14:O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="15" customFormat="1">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="11">
         <f>SUM(B15:O15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="15" customFormat="1">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="11">
         <f>SUM(B16:O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="15" customFormat="1"/>
-    <row r="19" spans="1:10" s="15" customFormat="1">
-      <c r="C19" s="15" t="s">
+    <row r="19" spans="1:10">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="15" customFormat="1">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <f>COS(RADIANS($R$1))*(B2)+SIN(RADIANS($R$1))*(B3)</f>
         <v>12.317617380686498</v>
       </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="0">COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
+      <c r="D20" s="11">
+        <f>COS(RADIANS($R$1))*(C2)+SIN(RADIANS($R$1))*(C3)</f>
         <v>8.7579279033220239</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f>COS(RADIANS($R$1))*(D2)+SIN(RADIANS($R$1))*(D3)</f>
         <v>8.7799310504147883</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <f>COS(RADIANS($R$1))*(E2+F2+N2+O2)+SIN(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>2.1690153454277112</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <f>COS(RADIANS($R$1))*(I2+G2+H2)+SIN(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>0.97407183925310326</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <f>COS(RADIANS($R$1))*(J2+K2)+SIN(RADIANS($R$1))*(J3+K3)</f>
         <v>0.1610922296778125</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <f>COS(RADIANS($R$1))*(L2+M2)+SIN(RADIANS($R$1))*(L3+M3)</f>
         <v>3.3925887777417194</v>
       </c>
-      <c r="J20" s="15">
-        <f>+SUM(C20:I20)</f>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="0">+SUM(C20:I20)</f>
         <v>36.552244526523658</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="15" customFormat="1">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:10">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="11">
         <f>COS(RADIANS($R$1))*(B8)+SIN(RADIANS($R$1))*(B9)</f>
         <v>12.031885585191478</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" ref="D21:E21" si="1">COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
+      <c r="D21" s="11">
+        <f>COS(RADIANS($R$1))*(C8)+SIN(RADIANS($R$1))*(C9)</f>
         <v>12.15254680616901</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
+      <c r="E21" s="11">
+        <f>COS(RADIANS($R$1))*(D8)+SIN(RADIANS($R$1))*(D9)</f>
         <v>13.289927975523938</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="11">
         <f>COS(RADIANS($R$1))*(E8+F8+N8+O8)+SIN(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>2.5140389088848543</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <f>COS(RADIANS($R$1))*(I8+G8+H8)+SIN(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>0.98966971380747149</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="11">
         <f>COS(RADIANS($R$1))*(J8+K8)+SIN(RADIANS($R$1))*(J9+K9)</f>
         <v>0.27639475007622344</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <f>COS(RADIANS($R$1))*(L8+M8)+SIN(RADIANS($R$1))*(L9+M9)</f>
         <v>3.3965443107479794</v>
       </c>
-      <c r="J21" s="15">
-        <f>+SUM(C21:I21)</f>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
         <v>44.651008050400954</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="15" customFormat="1">
-      <c r="B22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="15">
+    <row r="22" spans="1:10">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11">
         <f>COS(RADIANS($R$1))*(B14)+SIN(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <f>COS(RADIANS($R$1))*(C14)+SIN(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="11">
         <f>COS(RADIANS($R$1))*(D14)+SIN(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="11">
         <f>COS(RADIANS($R$1))*(E14+F14+N14+O14)+SIN(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="11">
         <f>COS(RADIANS($R$1))*(I14+G14+H14)+SIN(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="11">
         <f>COS(RADIANS($R$1))*(J14+K14)+SIN(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="11">
         <f>COS(RADIANS($R$1))*(L14+M14)+SIN(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" ref="J22:J25" si="2">+SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <f>-SIN(RADIANS($R$1))*(B2)+COS(RADIANS($R$1))*(B3)</f>
         <v>35.804751905205144</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <f>-SIN(RADIANS($R$1))*(C2)+COS(RADIANS($R$1))*(C3)</f>
         <v>66.070027460749643</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <f>-SIN(RADIANS($R$1))*(D2)+COS(RADIANS($R$1))*(D3)</f>
         <v>66.402953339116664</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="11">
         <f>-SIN(RADIANS($R$1))*(E2+F2+N2+O2)+COS(RADIANS($R$1))*(E3+F3+N3+O3)</f>
         <v>-0.33824550978158741</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <f>-SIN(RADIANS($R$1))*(I2+G2+H2)+COS(RADIANS($R$1))*(I3+G3+H3)</f>
         <v>-0.38355666012333367</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="11">
         <f>-SIN(RADIANS($R$1))*(J2+K2)+COS(RADIANS($R$1))*(J3+K3)</f>
         <v>2.3038147977930201</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <f>-SIN(RADIANS($R$1))*(L2+M2)+COS(RADIANS($R$1))*(L3+M3)</f>
         <v>6.1310912011212415E-2</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
+      <c r="J23" s="11">
+        <f t="shared" si="0"/>
         <v>169.92105624497077</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:10">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <f>-SIN(RADIANS($R$1))*(B8)+COS(RADIANS($R$1))*(B9)</f>
         <v>36.800554990216796</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="11">
         <f>-SIN(RADIANS($R$1))*(C8)+COS(RADIANS($R$1))*(C9)</f>
         <v>112.28932776861107</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <f>-SIN(RADIANS($R$1))*(D8)+COS(RADIANS($R$1))*(D9)</f>
         <v>113.97444968269566</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="11">
         <f>-SIN(RADIANS($R$1))*(E8+F8+N8+O8)+COS(RADIANS($R$1))*(E9+F9+N9+O9)</f>
         <v>-0.46612524235533459</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <f>-SIN(RADIANS($R$1))*(I8+G8+H8)+COS(RADIANS($R$1))*(I9+G9+H9)</f>
         <v>-0.3728154412987576</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="11">
         <f>-SIN(RADIANS($R$1))*(J8+K8)+COS(RADIANS($R$1))*(J9+K9)</f>
         <v>2.6743367695609703</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <f>-SIN(RADIANS($R$1))*(L8+M8)+COS(RADIANS($R$1))*(L9+M9)</f>
         <v>0.23730307123921812</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="2"/>
+      <c r="J24" s="11">
+        <f t="shared" si="0"/>
         <v>265.13703159866958</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
-      <c r="B25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15">
+    <row r="25" spans="1:10">
+      <c r="B25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="11">
         <f>-SIN(RADIANS($R$1))*(B14)+COS(RADIANS($R$1))*(B15)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="11">
         <f>-SIN(RADIANS($R$1))*(C14)+COS(RADIANS($R$1))*(C15)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>-SIN(RADIANS($R$1))*(D14)+COS(RADIANS($R$1))*(D15)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="11">
         <f>-SIN(RADIANS($R$1))*(E14+F14+N14+O14)+COS(RADIANS($R$1))*(E15+F15+N15+O15)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="11">
         <f>-SIN(RADIANS($R$1))*(I14+G14+H14)+COS(RADIANS($R$1))*(I15+G15+H15)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="11">
         <f>-SIN(RADIANS($R$1))*(J14+K14)+COS(RADIANS($R$1))*(J15+K15)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="11">
         <f>-SIN(RADIANS($R$1))*(L14+M14)+COS(RADIANS($R$1))*(L15+M15)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="15" customFormat="1"/>
-    <row r="27" spans="1:10" s="15" customFormat="1"/>
-    <row r="28" spans="1:10" s="15" customFormat="1"/>
-    <row r="29" spans="1:10" s="15" customFormat="1"/>
+      <c r="J25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10293,546 +10567,546 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="8" max="11" width="10.7109375" style="10"/>
-    <col min="13" max="13" width="10.7109375" style="10"/>
+    <col min="8" max="11" width="10.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15">
         <v>1.5</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="10">
+      <c r="E1" s="16"/>
+      <c r="F1" s="11">
         <v>1</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="11">
         <v>1.5</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1</v>
       </c>
       <c r="I1" s="16"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="16">
+      <c r="J1" s="10"/>
+      <c r="K1" s="15">
         <v>1.5</v>
       </c>
       <c r="L1" s="16"/>
-      <c r="M1" s="9"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
         <f>'alpha=0'!$J$20</f>
         <v>15.290605402799999</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <f>'alpha=0'!$J$23</f>
         <v>14.834909841148473</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <f>'alpha=0'!$J$21</f>
         <v>15.801879444000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <f>'alpha=0'!$J$24</f>
         <v>4.3615335693399997</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <f t="shared" ref="F4:F11" si="0">C4/B4</f>
         <v>0.97019767696260872</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <f t="shared" ref="G4:G11" si="1">E4/D4</f>
         <v>0.27601359602803965</v>
       </c>
-      <c r="H4" s="10">
-        <f>2*B4/(1.225*28*28*J4)</f>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H11" si="2">2*B4/(1.225*28*28*J4)</f>
         <v>5.9230208994950011E-2</v>
       </c>
-      <c r="I4" s="10">
-        <f>2*C4/(1.225*28*28*J4)</f>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I11" si="3">2*C4/(1.225*28*28*J4)</f>
         <v>5.7465011172910314E-2</v>
       </c>
-      <c r="J4" s="10">
-        <f>0.5376</f>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J11" si="4">0.5376</f>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K4" s="10">
-        <f>2*D4/(1.225*28*28*M4)</f>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K11" si="5">2*D4/(1.225*28*28*M4)</f>
         <v>4.4093355190618855E-2</v>
       </c>
-      <c r="L4" s="10">
-        <f>2*E4/(1.225*28*28*M4)</f>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L11" si="6">2*E4/(1.225*28*28*M4)</f>
         <v>1.2170365527104337E-2</v>
       </c>
-      <c r="M4" s="10">
-        <f>0.7463</f>
+      <c r="M4" s="11">
+        <f t="shared" ref="M4:M11" si="7">0.7463</f>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <f>'alpha=2'!$J$20</f>
         <v>16.055294288890284</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <f>'alpha=2'!$J$23</f>
         <v>36.771748382178224</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f>'alpha=2'!$J$21</f>
         <v>17.406416814637499</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <f>'alpha=2'!$J$24</f>
         <v>44.787241017938577</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>2.2903191757514541</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>2.5730304803614632</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H11" si="2">2*B5/(1.225*28*28*J5)</f>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
         <v>6.2192333864835747E-2</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I11" si="3">2*C5/(1.225*28*28*J5)</f>
+      <c r="I5" s="11">
+        <f t="shared" si="3"/>
         <v>0.14244029483536985</v>
       </c>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:J11" si="4">0.5376</f>
+      <c r="J5" s="11">
+        <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:K11" si="5">2*D5/(1.225*28*28*M5)</f>
+      <c r="K5" s="11">
+        <f t="shared" si="5"/>
         <v>4.8570635026278182E-2</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L11" si="6">2*E5/(1.225*28*28*M5)</f>
+      <c r="L5" s="11">
+        <f t="shared" si="6"/>
         <v>0.12497372437312587</v>
       </c>
-      <c r="M5" s="13">
-        <f t="shared" ref="M5:M11" si="7">0.7463</f>
+      <c r="M5" s="11">
+        <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <f>'alpha=4'!$J$20</f>
         <v>18.070508787079429</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <f>'alpha=4'!$J$23</f>
         <v>60.283438007054372</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <f>'alpha=4'!$J$21</f>
         <v>19.309324430292762</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <f>'alpha=4'!$J$24</f>
         <v>78.06731686924536</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>3.3360122129022485</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
         <v>4.042985405888782</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <f t="shared" si="2"/>
         <v>6.9998537265751393E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <f t="shared" si="3"/>
         <v>0.23351597520383979</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
         <f t="shared" si="5"/>
         <v>5.3880483243344553E-2</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <f t="shared" si="6"/>
         <v>0.21783800741507711</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <f>'alpha=6'!$J$20</f>
         <v>20.803621994228205</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <f>'alpha=6'!$J$23</f>
         <v>82.802535585092684</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <f>'alpha=6'!$J$21</f>
         <v>21.989588469128783</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <f>'alpha=6'!$J$24</f>
         <v>119.45472508969934</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>3.9801980447474756</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
         <v>5.4323310896610009</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <f t="shared" si="2"/>
         <v>8.0585617515473634E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <f t="shared" si="3"/>
         <v>0.3207467172698561</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <f t="shared" si="5"/>
         <v>6.1359456531798112E-2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="11">
         <f t="shared" si="6"/>
         <v>0.33332488336238963</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <f>'alpha=8'!$J$20</f>
         <v>23.489026294253037</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <f>'alpha=8'!$J$23</f>
         <v>105.2941379543939</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <f>'alpha=8'!$J$21</f>
         <v>25.620195313855035</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <f>'alpha=8'!$J$24</f>
         <v>154.93516292793052</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>4.4826948820843961</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>6.047384144809536</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <f t="shared" si="2"/>
         <v>9.0987890920376346E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <f t="shared" si="3"/>
         <v>0.40787095296042436</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <f t="shared" si="5"/>
         <v>7.1490253803687898E-2</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="11">
         <f t="shared" si="6"/>
         <v>0.43232902736083184</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>10</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <f>'alpha=10'!$J$20</f>
         <v>26.53653097574816</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <f>'alpha=10'!$J$23</f>
         <v>124.61014205786402</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <f>'alpha=10'!$J$21</f>
         <v>31.092044165992004</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <f>'alpha=10'!$J$24</f>
         <v>194.18111735835637</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>4.6957962279148591</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>6.2453634866101426</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <f t="shared" si="2"/>
         <v>0.10279280867497297</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <f t="shared" si="3"/>
         <v>0.48269408323271185</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
         <f t="shared" si="5"/>
         <v>8.6758828395823953E-2</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="11">
         <f t="shared" si="6"/>
         <v>0.5418404190043542</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>12</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <f>'alpha=12'!$J$20</f>
         <v>31.029939833651113</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <f>'alpha=12'!$J$23</f>
         <v>147.63400524939749</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <f>'alpha=12'!$J$21</f>
         <v>37.992395115765625</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <f>'alpha=12'!$J$24</f>
         <v>236.0857258009668</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>4.7577921852524021</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>6.2140258617967152</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>0.12019863001051115</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <f t="shared" si="3"/>
         <v>0.57188010254205479</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <f t="shared" si="5"/>
         <v>0.10601347632846721</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <f t="shared" si="6"/>
         <v>0.65877048360406909</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>14</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <f>'alpha=14'!$J$20</f>
         <v>36.552244526523658</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <f>'alpha=14'!$J$23</f>
         <v>169.92105624497077</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <f>'alpha=14'!$J$21</f>
         <v>44.651008050400954</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <f>'alpha=14'!$J$24</f>
         <v>265.13703159866958</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>4.648717430243436</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>5.9379853484917842</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="11">
         <f t="shared" si="2"/>
         <v>0.14159001723660083</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <f t="shared" si="3"/>
         <v>0.65821198107625489</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <f t="shared" si="4"/>
         <v>0.53759999999999997</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
         <f t="shared" si="5"/>
         <v>0.12459358170417333</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="11">
         <f t="shared" si="6"/>
         <v>0.73983486267549525</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <f t="shared" si="7"/>
         <v>0.74629999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="10" customFormat="1"/>
+    <row r="12" spans="1:13" s="11" customFormat="1"/>
     <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>2.752401375293668</v>
@@ -10840,95 +11114,95 @@
       <c r="D14" s="8">
         <v>2.0441131456459671</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="9">
         <v>4.092166939887588</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11">
-        <v>24.810638654515092</v>
-      </c>
-      <c r="D15" s="12">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12">
+        <v>24.810638654515088</v>
+      </c>
+      <c r="D15" s="13">
         <v>26.603047561821828</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="14">
         <v>45.180575475391421</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="G16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="7:12">
-      <c r="G17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="7:12">
-      <c r="G18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="7:12">
-      <c r="G19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="7:12" ht="21" customHeight="1">
-      <c r="G20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="7:12" ht="21" customHeight="1">
-      <c r="G21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="7:12" ht="21" customHeight="1">
-      <c r="G22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="7:12" ht="30" customHeight="1">
-      <c r="G23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="7:12" ht="21" customHeight="1">
-      <c r="G24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="7:12" ht="21" customHeight="1">
-      <c r="G25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="7:12" ht="21" customHeight="1">
-      <c r="G26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="7:12" ht="21" customHeight="1">
-      <c r="G27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="7:12">
-      <c r="G28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="7:12">
-      <c r="G29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="7:12">
-      <c r="G30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="7:12">
-      <c r="G31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="7:12">
-      <c r="G32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -1437,19 +1437,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>0.04045616744926783</v>
                 </pt>
                 <pt idx="1">
-                  <v>0</v>
+                  <v>0.04220069290907546</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.05278292818219132</v>
+                  <v>0.05320370679920216</v>
                 </pt>
                 <pt idx="3">
                   <v>0.06026646336460216</v>
                 </pt>
                 <pt idx="4">
-                  <v>0</v>
+                  <v>0.1616961956475185</v>
                 </pt>
                 <pt idx="5">
                   <v>0</v>
@@ -1470,19 +1470,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>0.0143357024011334</v>
                 </pt>
                 <pt idx="1">
-                  <v>0</v>
+                  <v>0.1228969298229778</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.2235637310316594</v>
+                  <v>0.2277047294222597</v>
                 </pt>
                 <pt idx="3">
                   <v>0.3368930892841539</v>
                 </pt>
                 <pt idx="4">
-                  <v>0</v>
+                  <v>0.5260381847517435</v>
                 </pt>
                 <pt idx="5">
                   <v>0</v>
@@ -1983,19 +1983,19 @@
                 <formatCode>General</formatCode>
                 <ptCount val="8"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>0.3543514698744121</v>
                 </pt>
                 <pt idx="1">
-                  <v>0</v>
+                  <v>2.912201704549459</v>
                 </pt>
                 <pt idx="2">
-                  <v>4.235531046325858</v>
+                  <v>4.279865880053199</v>
                 </pt>
                 <pt idx="3">
                   <v>5.59005905566428</v>
                 </pt>
                 <pt idx="4">
-                  <v>0</v>
+                  <v>3.253250224256691</v>
                 </pt>
                 <pt idx="5">
                   <v>0</v>
@@ -3336,46 +3336,46 @@
         </is>
       </c>
       <c r="B14" s="16" t="n">
-        <v>0.011030029612</v>
+        <v>5.98759663</v>
       </c>
       <c r="C14" s="16" t="n">
-        <v>0.003087971479</v>
+        <v>1.679322705</v>
       </c>
       <c r="D14" s="16" t="n">
-        <v>0.01050618067000001</v>
+        <v>1.6736552</v>
       </c>
       <c r="E14" s="16" t="n">
-        <v>-0.0001359167491999998</v>
+        <v>0.4891081414999999</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>0.0006919004541000001</v>
+        <v>0.4811498169999998</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>0.000334044689</v>
+        <v>0.3162668900000002</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>0.0005144317729999999</v>
+        <v>0.3196098884999998</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>0.0002348491557000001</v>
+        <v>0.5299313320000002</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>0.000250731884</v>
+        <v>0.2817551540000002</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>4.649961333000011e-05</v>
+        <v>0.2829861415000002</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>0.00269993066</v>
+        <v>0.9164496514999996</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>0.0009683745269999998</v>
+        <v>1.434965939999999</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>1.18517217e-05</v>
+        <v>0.05309031075000001</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>-2.010913194e-05</v>
+        <v>0.05252081415</v>
       </c>
       <c r="P14" s="16">
         <f>SUM(B14:O14)</f>
@@ -3389,46 +3389,46 @@
         </is>
       </c>
       <c r="B15" s="16" t="n">
-        <v>0.1216669045</v>
+        <v>3.908885540000004</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>0.132762945</v>
+        <v>0.1633863238735</v>
       </c>
       <c r="D15" s="16" t="n">
-        <v>0.09589208959999997</v>
+        <v>0.2183372223850001</v>
       </c>
       <c r="E15" s="16" t="n">
-        <v>0.007095855340000002</v>
+        <v>0.5672959950000001</v>
       </c>
       <c r="F15" s="16" t="n">
-        <v>3.928818579999988e-05</v>
+        <v>0.5554843770000003</v>
       </c>
       <c r="G15" s="16" t="n">
-        <v>6.53661653e-05</v>
+        <v>-0.08575831785000006</v>
       </c>
       <c r="H15" s="16" t="n">
-        <v>-3.0783658149e-05</v>
+        <v>-0.08622799204999997</v>
       </c>
       <c r="I15" s="16" t="n">
-        <v>2.413149657940001e-05</v>
+        <v>-0.06929521285000002</v>
       </c>
       <c r="J15" s="16" t="n">
-        <v>-0.0003770260195900001</v>
+        <v>-0.1411144274999999</v>
       </c>
       <c r="K15" s="16" t="n">
-        <v>0.00247898981</v>
+        <v>-0.1362126244999999</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>0.00232915363</v>
+        <v>0.2994187290000001</v>
       </c>
       <c r="M15" s="16" t="n">
-        <v>0.00254978222</v>
+        <v>-0.0585734607</v>
       </c>
       <c r="N15" s="16" t="n">
-        <v>-5.29566069599999e-08</v>
+        <v>0.0009311152765000011</v>
       </c>
       <c r="O15" s="16" t="n">
-        <v>-4.451951424000001e-07</v>
+        <v>0.0009751367990000001</v>
       </c>
       <c r="P15" s="16">
         <f>SUM(B15:O15)</f>
@@ -3442,46 +3442,46 @@
         </is>
       </c>
       <c r="B16" s="16" t="n">
-        <v>0.03562600129999999</v>
+        <v>1.044731590999999</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>-0.01892937360000001</v>
+        <v>-0.01466549465828501</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>-0.0139921101</v>
+        <v>-0.02025691734</v>
       </c>
       <c r="E16" s="16" t="n">
-        <v>0.0002915800299000001</v>
+        <v>-0.08281128230000002</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>-0.0002987513654</v>
+        <v>-0.08230465405000004</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>-4.187373340000001e-05</v>
+        <v>-0.02993593185</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>-5.678264420000002e-05</v>
+        <v>-0.03044390064999998</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>-1.925999052e-05</v>
+        <v>-0.07517746390000001</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>0.0001178455620999999</v>
+        <v>0.05730169149999999</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>-0.0001410187417</v>
+        <v>0.05629461675</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>-4.2603352419e-08</v>
+        <v>2.220198539999999e-05</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>-0.0004455510749999997</v>
+        <v>0.05164694734999998</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>-2.7468335933e-08</v>
+        <v>-0.0001816852795000001</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>7.045075590000001e-08</v>
+        <v>-0.0001831871364999999</v>
       </c>
       <c r="P16" s="16">
         <f>SUM(B16:O16)</f>
@@ -3800,13 +3800,13 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="16" width="10.7109375"/>
-    <col customWidth="1" max="16384" min="3" style="16" width="10.7109375"/>
+    <col customWidth="1" max="5" min="1" style="16" width="10.7109375"/>
+    <col customWidth="1" max="16384" min="6" style="16" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5269,46 +5269,46 @@
         </is>
       </c>
       <c r="B14" s="16" t="n">
-        <v>6.195426229999998</v>
+        <v>5.886932320000001</v>
       </c>
       <c r="C14" s="16" t="n">
-        <v>1.463333060000001</v>
+        <v>1.0813891</v>
       </c>
       <c r="D14" s="16" t="n">
-        <v>1.47277179</v>
+        <v>1.08273678</v>
       </c>
       <c r="E14" s="16" t="n">
-        <v>0.7570528240000001</v>
+        <v>0.6267263460000001</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>0.7056951379999998</v>
+        <v>0.6129815500000001</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>0.3104914369999999</v>
+        <v>0.3115262659999999</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>0.3125785269999999</v>
+        <v>0.314329646</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>0.559392377</v>
+        <v>0.5429524259999998</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>0.285280259</v>
+        <v>0.2427650259999999</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>0.3105582119999999</v>
+        <v>0.245101206</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1.086495409999999</v>
+        <v>1.10479306</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1.44377327</v>
+        <v>1.39284104</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>0.0524716457</v>
+        <v>0.05223044819999999</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>0.05315238630000001</v>
+        <v>0.05101305140000001</v>
       </c>
       <c r="P14" s="16">
         <f>SUM(B14:O14)</f>
@@ -5322,46 +5322,46 @@
         </is>
       </c>
       <c r="B15" s="16" t="n">
-        <v>9.41341907</v>
+        <v>8.701308359999999</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>16.5712442</v>
+        <v>17.1573882</v>
       </c>
       <c r="D15" s="16" t="n">
-        <v>16.9521545</v>
+        <v>17.22509500000001</v>
       </c>
       <c r="E15" s="16" t="n">
-        <v>0.3466590420000001</v>
+        <v>0.507770566</v>
       </c>
       <c r="F15" s="16" t="n">
-        <v>0.3723090459999999</v>
+        <v>0.484802602</v>
       </c>
       <c r="G15" s="16" t="n">
-        <v>-0.08918507470000002</v>
+        <v>-0.07994568660000001</v>
       </c>
       <c r="H15" s="16" t="n">
-        <v>-0.0866620083</v>
+        <v>-0.07941326260000001</v>
       </c>
       <c r="I15" s="16" t="n">
-        <v>-0.07478956170000001</v>
+        <v>-0.06790172699999998</v>
       </c>
       <c r="J15" s="16" t="n">
-        <v>0.0600407183</v>
+        <v>0.05488696419999999</v>
       </c>
       <c r="K15" s="16" t="n">
-        <v>0.05460838570000001</v>
+        <v>0.05799731819999998</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>0.402648616</v>
+        <v>0.498371202</v>
       </c>
       <c r="M15" s="16" t="n">
-        <v>0.009669644535000002</v>
+        <v>0.01688236244</v>
       </c>
       <c r="N15" s="16" t="n">
-        <v>0.0009780048270000006</v>
+        <v>0.0009328380260000001</v>
       </c>
       <c r="O15" s="16" t="n">
-        <v>0.001001930364</v>
+        <v>0.0009420667499999998</v>
       </c>
       <c r="P15" s="16">
         <f>SUM(B15:O15)</f>
@@ -5375,46 +5375,46 @@
         </is>
       </c>
       <c r="B16" s="16" t="n">
-        <v>2.833318809999999</v>
+        <v>2.48841914</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>-0.778202547</v>
+        <v>-0.8463188740000004</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>-0.8476113680000001</v>
+        <v>-0.8597423140000001</v>
       </c>
       <c r="E16" s="16" t="n">
-        <v>-0.07025693669999999</v>
+        <v>-0.08219693079999998</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>-0.07111044919999998</v>
+        <v>-0.0776558314</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>-0.0293038292</v>
+        <v>-0.0297683522</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>-0.02950167719999998</v>
+        <v>-0.0302848786</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>-0.08155928339999999</v>
+        <v>-0.07706124820000002</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>0.06919609839999998</v>
+        <v>0.06474453119999998</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>0.07230336079999998</v>
+        <v>0.06340912659999999</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1.36349047e-05</v>
+        <v>3.1733597e-05</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>0.03923755189999999</v>
+        <v>0.036450457</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>-0.000182113772</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-0.000182913854</v>
+        <v>-0.00017847756</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>-0.000177507308</v>
       </c>
       <c r="P16" s="16">
         <f>SUM(B16:O16)</f>
@@ -5733,7 +5733,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="75">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6333,46 +6333,46 @@
         </is>
       </c>
       <c r="B14" s="16" t="n">
-        <v>6.737544010000001</v>
+        <v>6.324126660000001</v>
       </c>
       <c r="C14" s="16" t="n">
-        <v>0.2020494420000001</v>
+        <v>-0.2447137060000001</v>
       </c>
       <c r="D14" s="16" t="n">
-        <v>0.211207407</v>
+        <v>-0.232191556</v>
       </c>
       <c r="E14" s="16" t="n">
-        <v>0.8223234569999996</v>
+        <v>0.7555321999999997</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>0.8246025939999996</v>
+        <v>0.7466995359999998</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>0.305289657</v>
+        <v>0.3086075659999999</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>0.3114672989999999</v>
+        <v>0.3066244020000001</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>0.5262437309999999</v>
+        <v>0.49664149</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>0.252498173</v>
+        <v>0.18486051</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>0.247246521</v>
+        <v>0.190561262</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1.26919925</v>
+        <v>1.29492662</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1.46793258</v>
+        <v>1.39570214</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>0.05120304360000003</v>
+        <v>0.04971435679999999</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>0.05226720600000002</v>
+        <v>0.050310438</v>
       </c>
       <c r="P14" s="16">
         <f>SUM(B14:O14)</f>
@@ -6386,46 +6386,46 @@
         </is>
       </c>
       <c r="B15" s="16" t="n">
-        <v>12.2650042</v>
+        <v>12.4964562</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>33.7361793</v>
+        <v>34.29225699999999</v>
       </c>
       <c r="D15" s="16" t="n">
-        <v>33.78336969999999</v>
+        <v>34.33005940000001</v>
       </c>
       <c r="E15" s="16" t="n">
-        <v>0.307244372</v>
+        <v>0.3620824659999999</v>
       </c>
       <c r="F15" s="16" t="n">
-        <v>0.311681866</v>
+        <v>0.3776906879999999</v>
       </c>
       <c r="G15" s="16" t="n">
-        <v>-0.08224288209999997</v>
+        <v>-0.07356781499999999</v>
       </c>
       <c r="H15" s="16" t="n">
-        <v>-0.08115237650000001</v>
+        <v>-0.07384937700000001</v>
       </c>
       <c r="I15" s="16" t="n">
-        <v>-0.06805043710000003</v>
+        <v>-0.06138309300000001</v>
       </c>
       <c r="J15" s="16" t="n">
-        <v>0.254042783</v>
+        <v>0.258658598</v>
       </c>
       <c r="K15" s="16" t="n">
-        <v>0.263949008</v>
+        <v>0.2597150739999999</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>0.4771891220000001</v>
+        <v>0.6218747619999999</v>
       </c>
       <c r="M15" s="16" t="n">
-        <v>0.07446182916499997</v>
+        <v>0.05538057120000002</v>
       </c>
       <c r="N15" s="16" t="n">
-        <v>0.0009238314320000003</v>
+        <v>0.0008552452640000004</v>
       </c>
       <c r="O15" s="16" t="n">
-        <v>0.00100905645</v>
+        <v>0.0008875943420000002</v>
       </c>
       <c r="P15" s="16">
         <f>SUM(B15:O15)</f>
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B16" s="16" t="n">
-        <v>3.486403699999999</v>
+        <v>3.48817294</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>-1.746087050000002</v>
+        <v>-1.75682854</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>-1.77337312</v>
+        <v>-1.775085940000001</v>
       </c>
       <c r="E16" s="16" t="n">
-        <v>-0.07080176530000001</v>
+        <v>-0.07524644879999999</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>-0.06851922620000001</v>
+        <v>-0.072380815</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>-0.0291505181</v>
+        <v>-0.02987740780000001</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>-0.0298499933</v>
+        <v>-0.0297605074</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>-0.0766473749</v>
+        <v>-0.0715498296</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>0.07700801309999998</v>
+        <v>0.0715465934</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>0.07407876970000003</v>
+        <v>0.07083202939999998</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1.165623124e-05</v>
+        <v>2.28428202e-05</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>0.02790498929999999</v>
+        <v>0.02939216759999998</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>-0.000176098805</v>
+        <v>-0.000167753056</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>-0.0001809339690000001</v>
+        <v>-0.00017283618</v>
       </c>
       <c r="P16" s="16">
         <f>SUM(B16:O16)</f>
@@ -7444,46 +7444,46 @@
         </is>
       </c>
       <c r="B14" s="16" t="n">
-        <v>6.186579919999999</v>
+        <v>5.996930740000002</v>
       </c>
       <c r="C14" s="16" t="n">
-        <v>-1.811062270000001</v>
+        <v>-2.31620176</v>
       </c>
       <c r="D14" s="16" t="n">
-        <v>-1.79646895</v>
+        <v>-2.28863382</v>
       </c>
       <c r="E14" s="16" t="n">
-        <v>0.9169976580000002</v>
+        <v>0.867622078</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>0.9114933109999995</v>
+        <v>0.8527899219999999</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>0.3020971700000001</v>
+        <v>0.300171072</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>0.303056772</v>
+        <v>0.302576062</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>0.536054043</v>
+        <v>0.5240599500000001</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>0.1844856870000001</v>
+        <v>0.120251608</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>0.176601244</v>
+        <v>0.125706556</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1.37006093</v>
+        <v>1.38402396</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1.47700878</v>
+        <v>1.4592594</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>0.0521019659</v>
+        <v>0.04849991899999999</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>0.0504826152</v>
+        <v>0.0497163354</v>
       </c>
       <c r="P14" s="16">
         <f>SUM(B14:O14)</f>
@@ -7502,46 +7502,46 @@
         </is>
       </c>
       <c r="B15" s="16" t="n">
-        <v>19.2809113</v>
+        <v>19.2059208</v>
       </c>
       <c r="C15" s="16" t="n">
-        <v>50.54394650000002</v>
+        <v>51.22066699999999</v>
       </c>
       <c r="D15" s="16" t="n">
-        <v>50.63352</v>
+        <v>51.51598040000001</v>
       </c>
       <c r="E15" s="16" t="n">
-        <v>0.294597891</v>
+        <v>0.256396276</v>
       </c>
       <c r="F15" s="16" t="n">
-        <v>0.21402106</v>
+        <v>0.2514657499999999</v>
       </c>
       <c r="G15" s="16" t="n">
-        <v>-0.07515602559999998</v>
+        <v>-0.06777370059999999</v>
       </c>
       <c r="H15" s="16" t="n">
-        <v>-0.07416123730000003</v>
+        <v>-0.0676159444</v>
       </c>
       <c r="I15" s="16" t="n">
-        <v>-0.06002545569999999</v>
+        <v>-0.05236388259999997</v>
       </c>
       <c r="J15" s="16" t="n">
-        <v>0.4185793460000001</v>
+        <v>0.4522394340000001</v>
       </c>
       <c r="K15" s="16" t="n">
-        <v>0.4479452720000001</v>
+        <v>0.4662225339999999</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>0.5406406559999999</v>
+        <v>0.573888568</v>
       </c>
       <c r="M15" s="16" t="n">
-        <v>0.1629749809999999</v>
+        <v>0.17494098</v>
       </c>
       <c r="N15" s="16" t="n">
-        <v>0.0009508495439999999</v>
+        <v>0.0009235540539999998</v>
       </c>
       <c r="O15" s="16" t="n">
-        <v>0.0009330756590000003</v>
+        <v>0.0009646520939999997</v>
       </c>
       <c r="P15" s="16">
         <f>SUM(B15:O15)</f>
@@ -7560,46 +7560,46 @@
         </is>
       </c>
       <c r="B16" s="16" t="n">
-        <v>6.100976139999999</v>
+        <v>5.72588316</v>
       </c>
       <c r="C16" s="16" t="n">
-        <v>-2.714365850000001</v>
+        <v>-2.68494908</v>
       </c>
       <c r="D16" s="16" t="n">
-        <v>-2.72549839</v>
+        <v>-2.751693840000001</v>
       </c>
       <c r="E16" s="16" t="n">
-        <v>-0.0744528426</v>
+        <v>-0.06980146240000001</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>-0.06398144379999998</v>
+        <v>-0.06546516780000002</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>-0.0291492801</v>
+        <v>-0.02933580480000001</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>-0.0292789445</v>
+        <v>-0.02974801099999999</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>-0.0737596155</v>
+        <v>-0.06958195520000002</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>0.08577571459999996</v>
+        <v>0.07704933479999999</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>0.07965046999999999</v>
+        <v>0.07483638739999998</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>9.367639990000001e-06</v>
+        <v>1.59023482e-05</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>0.01174240778</v>
+        <v>0.009019344780000004</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>-0.000179902091</v>
+        <v>-0.0001666139700000001</v>
       </c>
       <c r="O16" s="16" t="n">
-        <v>-0.00017273442</v>
+        <v>-0.000174237838</v>
       </c>
       <c r="P16" s="16">
         <f>SUM(B16:O16)</f>
@@ -11001,8 +11001,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col customWidth="1" max="14" min="1" style="16" width="10.7109375"/>
-    <col customWidth="1" max="16384" min="15" style="16" width="10.7109375"/>
+    <col customWidth="1" max="17" min="1" style="16" width="10.7109375"/>
+    <col customWidth="1" max="16384" min="18" style="16" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/wing_force.xlsx
+++ b/wing_force.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wadakoki/Desktop/force_calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C488E1-1B49-CB40-85C0-42399039E59E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1DF0A1-0B17-8844-8EBB-208398EE2F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha=0" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,15 @@
     <sheet name="plot_1.0vs1.5D2vs1.5B" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1462,7 +1469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$N$3:$N$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1495,7 +1502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$O$3:$O$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1555,7 +1562,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$T$3:$T$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$T$3:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1588,7 +1595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$U$3:$U$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$U$3:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1658,7 +1665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$Q$3:$Q$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1691,7 +1698,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$R$3:$R$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1734,7 +1741,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$M$1</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1766,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$W$3:$W$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1792,7 +1799,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$X$3:$X$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$X$3:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2085,7 +2092,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$A$3:$A$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2118,7 +2125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$J$3:$J$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2178,7 +2185,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$A$3:$A$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2211,7 +2218,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$L$3:$L$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2299,7 +2306,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$A$3:$A$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2332,7 +2339,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$K$3:$K$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2375,7 +2382,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$M$1</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2400,7 +2407,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$A$3:$A$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2433,7 +2440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$M$3:$M$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2775,7 +2782,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$N$3:$N$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2808,7 +2815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$O$3:$O$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2868,7 +2875,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$T$3:$T$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$T$3:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2901,7 +2908,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$U$3:$U$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$U$3:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2961,7 +2968,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$W$3:$W$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2994,7 +3001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$X$3:$X$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$X$3:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3064,7 +3071,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$Q$3:$Q$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3097,7 +3104,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$R$3:$R$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3390,7 +3397,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$N$3:$N$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3423,7 +3430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$O$3:$O$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$O$3:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3493,7 +3500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$Q$3:$Q$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3526,7 +3533,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$R$3:$R$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3876,66 +3883,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$O$3:$O$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.7465011172910314E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14244029483536985</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23351597520383979</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3207467172698561</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40787095296042436</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48269408323271185</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57188010254205479</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65821198107625489</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$N$3:$N$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.9230208994950011E-2</c:v>
+                  <c:v>11.351795738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2192333864835747E-2</c:v>
+                  <c:v>12.728685497702351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9998537265751393E-2</c:v>
+                  <c:v>13.752303438509957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0585617515473634E-2</c:v>
+                  <c:v>15.842940452154044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0987890920376346E-2</c:v>
+                  <c:v>18.596812002825288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10279280867497297</c:v>
+                  <c:v>22.118832490575183</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12019863001051115</c:v>
+                  <c:v>26.582270111168306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14159001723660083</c:v>
+                  <c:v>33.179315730543053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4206,8 +4213,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4243,7 +4250,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$A$3:$A$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4276,33 +4283,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>plot_1.0vs1.5D2vs1.5B!$Q$3:$Q$10</c:f>
+              <c:f>'plot_1.0vs1.5D2vs1.5B'!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.6469800322322755E-2</c:v>
+                  <c:v>9.6275988133999952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0893320244734854E-2</c:v>
+                  <c:v>46.549591997362683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4181887337484328E-2</c:v>
+                  <c:v>80.534835529802265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.089845590459019E-2</c:v>
+                  <c:v>112.81296660497291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9745791417341432E-2</c:v>
+                  <c:v>147.57369744084201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.106095131661555E-2</c:v>
+                  <c:v>179.930767932424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5400592597269342E-2</c:v>
+                  <c:v>211.20227921087366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10659485489803196</c:v>
+                  <c:v>242.16760484985357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7474,7 +7481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD7FF7B-2B90-9D40-B17A-8CCBA9CB5BF2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -8731,8 +8738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
